--- a/Dokumenty/Carlier/daneCarlier.xlsx
+++ b/Dokumenty/Carlier/daneCarlier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Sem 6\SPD lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkale\source\repos\SPD2021\Dokumenty\Carlier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC442E33-D821-4F84-B14F-59E445CA8F49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD6D610-E661-463F-B2DE-62E434670024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79FD4E19-2889-4421-8964-6CB261FA7C4B}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79FD4E19-2889-4421-8964-6CB261FA7C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Carlier" sheetId="1" r:id="rId1"/>
@@ -1044,12 +1044,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1064,18 +1058,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,19 +1082,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1167,7 +1167,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1234,7 +1234,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2947,7 +2947,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="786127263"/>
@@ -3006,7 +3006,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="786133503"/>
@@ -3058,7 +3058,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3095,7 +3095,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3109,7 +3109,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3176,7 +3176,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4473,7 +4473,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="786127263"/>
@@ -4532,7 +4532,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="786133503"/>
@@ -4584,7 +4584,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4621,7 +4621,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4635,7 +4635,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4702,7 +4702,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4742,7 +4742,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Carlier!$B$114:$B$157</c:f>
+              <c:f>Carlier!$B$67:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -4883,7 +4883,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Carlier!$D$114:$D$157</c:f>
+              <c:f>Carlier!$D$67:$D$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -5049,7 +5049,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Carlier!$B$114:$B$157</c:f>
+              <c:f>Carlier!$B$67:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -5190,7 +5190,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Carlier!$F$114:$F$157</c:f>
+              <c:f>Carlier!$F$67:$F$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -5356,7 +5356,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Carlier!$B$114:$B$157</c:f>
+              <c:f>Carlier!$B$67:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -5497,7 +5497,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Carlier!$H$114:$H$157</c:f>
+              <c:f>Carlier!$H$67:$H$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -5663,7 +5663,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Carlier!$B$114:$B$157</c:f>
+              <c:f>Carlier!$B$67:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -5804,7 +5804,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Carlier!$J$114:$J$157</c:f>
+              <c:f>Carlier!$J$67:$J$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -5970,7 +5970,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Carlier!$B$114:$B$157</c:f>
+              <c:f>Carlier!$B$67:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -6111,7 +6111,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Carlier!$L$114:$L$157</c:f>
+              <c:f>Carlier!$L$67:$L$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -6277,7 +6277,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Carlier!$B$114:$B$157</c:f>
+              <c:f>Carlier!$B$67:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -6418,7 +6418,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Carlier!$N$114:$N$157</c:f>
+              <c:f>Carlier!$N$67:$N$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -6587,7 +6587,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Carlier!$B$114:$B$157</c:f>
+              <c:f>Carlier!$B$67:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -6728,7 +6728,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Carlier!$P$114:$P$157</c:f>
+              <c:f>Carlier!$P$67:$P$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -6875,7 +6875,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6945,7 +6944,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6983,7 +6982,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="279459695"/>
@@ -7070,7 +7069,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7102,7 +7101,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="279449711"/>
@@ -7144,7 +7143,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7181,7 +7180,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8938,16 +8937,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>91540</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>30925</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>377290</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>7112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>62777</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9028,9 +9027,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9068,7 +9067,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9174,7 +9173,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9324,10 +9323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC57411-5B83-4272-8409-3CFCEC01C8E4}">
-  <dimension ref="A1:S157"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="BN94" sqref="BN94"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:S110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9337,46 +9336,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="8" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="9"/>
+      <c r="P1" s="41"/>
       <c r="Q1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -9429,5730 +9428,5730 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>4</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>283</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>20.4863</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>283</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>17.585799999999999</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>283</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>15.332700000000001</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="16">
         <v>228</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>25.172799999999999</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="16">
         <v>228</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="9">
         <v>18.236599999999999</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="20">
         <v>228</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="21">
         <v>15.1198</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="18">
         <v>228</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="9">
         <v>13.029</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>7</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>53</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>0.3947</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>53</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>0.42109999999999997</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>53</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <v>50</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>0.83240000000000003</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="16">
         <v>50</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="16">
         <v>50</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="18">
         <v>50</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="9">
         <v>2.46E-2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>10</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>8189</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>534.15660000000003</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>8189</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>1626.1470999999999</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>8189</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>116.8257</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>8189</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>0.60519999999999996</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="16">
         <v>8189</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="9">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="16">
         <v>8189</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="9">
         <v>0.57869999999999999</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="18">
         <v>8189</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="9">
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>20</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>1361</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>717.55420000000004</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>1361</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>2203.0781999999999</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>1361</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>161.10730000000001</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="16">
         <v>1361</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <v>0.79279999999999995</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="16">
         <v>1361</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <v>6.08E-2</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="16">
         <v>1361</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="9">
         <v>7.5399999999999995E-2</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="18">
         <v>1361</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="9">
         <v>8.6800000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>20</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>9106</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>524.88509999999997</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>9106</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>1634.8426999999999</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>9106</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <v>118.0236</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="16">
         <v>9106</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <v>0.1802</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="16">
         <v>9106</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="9">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="16">
         <v>9106</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="9">
         <v>0.1774</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="18">
         <v>9106</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="9">
         <v>0.18140000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>30</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>9833</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>536.34559999999999</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>9833</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>1708.0671</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>9833</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>136.65170000000001</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="16">
         <v>9833</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <v>1.0599000000000001</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="16">
         <v>9833</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>0.29930000000000001</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="16">
         <v>9833</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="9">
         <v>7.1247999999999996</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="18">
         <v>9833</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="9">
         <v>0.3528</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>40</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>8872</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>528.89409999999998</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>8872</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>1679.5046</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>8872</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <v>121.60509999999999</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="16">
         <v>8872</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <v>1.05</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="16">
         <v>8872</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <v>0.1547</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="16">
         <v>8872</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="9">
         <v>0.76180000000000003</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="18">
         <v>8872</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="9">
         <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>50</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>3109</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>618.90620000000001</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>3109</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>1816.8906999999999</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>3109</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>194.68870000000001</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="16">
         <v>3026</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <v>39.668999999999997</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="16">
         <v>3026</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="9">
         <v>13.7623</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="16">
         <v>3026</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="9">
         <v>10.9152</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="18">
         <v>3026</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="9">
         <v>11.637</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>50</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>3708</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>746.83730000000003</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>3708</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>2573.0610000000001</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <v>3708</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>161.1234</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="16">
         <v>3665</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <v>56555.512999999999</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="16">
         <v>3665</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="9">
         <v>9011.2996000000003</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="16">
         <v>3665</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="9">
         <v>5.1210000000000004</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="18">
         <v>3665</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="9">
         <v>2.8331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>50</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>3309</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>576.46299999999997</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>3309</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>1781.3317</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <v>3309</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>174.83240000000001</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="16">
         <v>3309</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="9">
         <v>131.28270000000001</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="16">
         <v>3309</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="9">
         <v>29.3276</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="36">
         <v>3315</v>
       </c>
       <c r="N12" s="3">
         <v>1.8953</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="35">
         <v>3315</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="9">
         <v>3.3866000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>50</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>3235</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>847.00030000000004</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>3235</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>2572.6205</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <v>3235</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>200.95480000000001</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="16">
         <v>3191</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="9">
         <v>22.831600000000002</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="16">
         <v>3191</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="9">
         <v>0.71350000000000002</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="16">
         <v>3191</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="9">
         <v>1.5017</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="18">
         <v>3191</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="9">
         <v>3.7263999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>50</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>3625</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>618.91189999999995</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>3625</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>1939.8680999999999</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <v>3625</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>141.19300000000001</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="16">
         <v>3618</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <v>7797.2178999999996</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="16">
         <v>3618</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="9">
         <v>1305.0456999999999</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="36">
         <v>3625</v>
       </c>
       <c r="N14" s="3">
         <v>0.71220000000000006</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="35">
         <v>3625</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="9">
         <v>3.6659000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>50</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>3446</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>742.81719999999996</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>3446</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>2316.0720000000001</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <v>3446</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>167.26650000000001</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="16">
         <v>3446</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="9">
         <v>367155.57299999997</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="16">
         <v>3446</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="9">
         <v>57673.709699999999</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="16">
         <v>3446</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="9">
         <v>0.71309999999999996</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="18">
         <v>3446</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="9">
         <v>3.8195999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>50</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>3862</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>584.36850000000004</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>3862</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>1780.9213999999999</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="8">
         <v>3862</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>114.9358</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="16">
         <v>0</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="9">
         <v>0</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="16">
         <v>3821</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="9">
         <v>2445595</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="16">
         <v>3821</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="9">
         <v>0.5867</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="18">
         <v>3821</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="9">
         <v>1.3420000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>50</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>3645</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>540.41399999999999</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>3645</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>1692.1745000000001</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <v>3645</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <v>115.4349</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="16">
         <v>0</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="9">
         <v>0</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="16">
         <v>0</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="9">
         <v>0</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="16">
         <v>3634</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="9">
         <v>4.1315999999999997</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="18">
         <v>3634</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="9">
         <v>1.367</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>50</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>1513</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>587.303</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>1512</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>1897.5714</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
         <v>1513</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <v>162.45570000000001</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="16">
         <v>1492</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="9">
         <v>6.5792000000000002</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="16">
         <v>1492</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="9">
         <v>0.9516</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="16">
         <v>1492</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="9">
         <v>1.6222000000000001</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="18">
         <v>1492</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="9">
         <v>3.2231999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>50</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <v>9388</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>587.87789999999995</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>9388</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>1702.3764000000001</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="8">
         <v>9388</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <v>165.60759999999999</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="16">
         <v>9388</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="9">
         <v>0.94359999999999999</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="16">
         <v>9388</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="9">
         <v>0.16689999999999999</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="16">
         <v>9388</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="9">
         <v>1.1108</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="18">
         <v>9388</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="9">
         <v>0.51470000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>50</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>3109</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>558.55179999999996</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <v>3109</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <v>1739.8344</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="8">
         <v>3109</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="9">
         <v>128.38550000000001</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="16">
         <v>3026</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="9">
         <v>26.6645</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="16">
         <v>3026</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="9">
         <v>7.1379999999999999</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="16">
         <v>3026</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="9">
         <v>3.7090999999999998</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="18">
         <v>3026</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="9">
         <v>4.3689999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <v>60</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>3077</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="9">
         <v>755.14319999999998</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <v>3077</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <v>2313.1332000000002</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="8">
         <v>3077</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="9">
         <v>182.78299999999999</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="16">
         <v>3070</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="9">
         <v>11.72</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="16">
         <v>3070</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="9">
         <v>0.43369999999999997</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="16">
         <v>3070</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="9">
         <v>0.25600000000000001</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="18">
         <v>3070</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="9">
         <v>0.9042</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="9">
         <v>60</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>8878</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>565.51620000000003</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <v>8878</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <v>1705.5661</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="8">
         <v>8878</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="9">
         <v>155.7072</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="16">
         <v>8864</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="9">
         <v>4.2133000000000003</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="16">
         <v>8864</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="9">
         <v>1.0371999999999999</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="16">
         <v>8864</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="9">
         <v>1.6154999999999999</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="18">
         <v>8864</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="9">
         <v>2.7393000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="9">
         <v>70</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>3074</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="9">
         <v>688.14390000000003</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="8">
         <v>3074</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <v>2076.7388999999998</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="8">
         <v>3074</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="9">
         <v>173.2732</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="16">
         <v>3070</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="9">
         <v>8.6294000000000004</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="16">
         <v>3070</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="9">
         <v>0.27610000000000001</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="16">
         <v>3070</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="9">
         <v>3.1057999999999999</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="18">
         <v>3070</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="9">
         <v>3.6375999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="9">
         <v>70</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <v>9095</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <v>671.76919999999996</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <v>9095</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <v>1790.5567000000001</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="8">
         <v>9095</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <v>191.47300000000001</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="16">
         <v>9095</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="9">
         <v>0.34139999999999998</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="16">
         <v>9095</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="9">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="16">
         <v>9095</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="9">
         <v>1.1161000000000001</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="18">
         <v>9095</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="9">
         <v>0.17480000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <v>80</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <v>3081</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <v>893.36900000000003</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="8">
         <v>3081</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <v>2332.0315999999998</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="8">
         <v>3081</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="9">
         <v>230.79419999999999</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="16">
         <v>3070</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="9">
         <v>49.564700000000002</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="16">
         <v>3070</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="9">
         <v>9.8393999999999995</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="16">
         <v>3070</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="9">
         <v>15.237</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="18">
         <v>3070</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" s="9">
         <v>4.3780999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="9">
         <v>80</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>9878</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="9">
         <v>570.62599999999998</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="8">
         <v>9878</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="9">
         <v>1805.1407999999999</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="8">
         <v>9878</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="9">
         <v>143.7193</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="16">
         <v>9878</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="9">
         <v>0.75039999999999996</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="16">
         <v>9878</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="9">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="16">
         <v>9878</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="9">
         <v>0.82299999999999995</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="18">
         <v>9878</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="9">
         <v>0.75309999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="9">
         <v>90</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>3078</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>692.53729999999996</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>3078</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="9">
         <v>2027.2028</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>3078</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="9">
         <v>191.22630000000001</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="16">
         <v>3070</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="9">
         <v>38.463700000000003</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="16">
         <v>3070</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="9">
         <v>8.1918000000000006</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="16">
         <v>3070</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="9">
         <v>4.1580000000000004</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="18">
         <v>3070</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="9">
         <v>7.7659000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="9">
         <v>90</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>9180</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="9">
         <v>747.04740000000004</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="8">
         <v>9180</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="9">
         <v>1883.8014000000001</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="8">
         <v>9180</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="9">
         <v>201.02539999999999</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="16">
         <v>9151</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="9">
         <v>29.198799999999999</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="16">
         <v>9151</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="9">
         <v>7.0271999999999997</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="16">
         <v>9151</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="9">
         <v>4.1363000000000003</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28" s="18">
         <v>9151</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="9">
         <v>4.8083999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="9">
         <v>100</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <v>3076</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="9">
         <v>655.61040000000003</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <v>3076</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="9">
         <v>1831.3322000000001</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="8">
         <v>3076</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="9">
         <v>161.6798</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="16">
         <v>3070</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="9">
         <v>19.473700000000001</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="16">
         <v>3070</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="9">
         <v>0.54600000000000004</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="16">
         <v>3070</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="9">
         <v>8.0709</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="18">
         <v>3070</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="9">
         <v>13.184100000000001</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="9">
         <v>100</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="8">
         <v>8962</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="9">
         <v>627.89340000000004</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="8">
         <v>8962</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="9">
         <v>1790.2601</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="8">
         <v>8962</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="9">
         <v>195.18260000000001</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="16">
         <v>8941</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="9">
         <v>29.624099999999999</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="16">
         <v>8941</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="9">
         <v>5.5189000000000004</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M30" s="16">
         <v>8941</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="9">
         <v>6.2077999999999998</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="18">
         <v>8941</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="9">
         <v>6.8567</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="9">
         <v>110</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="8">
         <v>6398</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="9">
         <v>612.49649999999997</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="8">
         <v>6398</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="9">
         <v>1757.739</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="8">
         <v>6398</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="9">
         <v>160.90979999999999</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="16">
         <v>6398</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="9">
         <v>0.95109999999999995</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="16">
         <v>6398</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="9">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M31" s="16">
         <v>6398</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="9">
         <v>1.0165999999999999</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="18">
         <v>6398</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="9">
         <v>1.0065</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="9">
         <v>110</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <v>9864</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="9">
         <v>627.07669999999996</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="8">
         <v>9864</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="9">
         <v>1796.5944</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="8">
         <v>9864</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="9">
         <v>164.75829999999999</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="16">
         <v>9788</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="9">
         <v>46.5246</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="16">
         <v>9788</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="9">
         <v>6.0555000000000003</v>
       </c>
-      <c r="M32" s="18">
+      <c r="M32" s="16">
         <v>9788</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="9">
         <v>9.1625999999999994</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O32" s="18">
         <v>9788</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" s="9">
         <v>13.1135</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="9">
         <v>120</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <v>6398</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="9">
         <v>738.99310000000003</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="8">
         <v>6398</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="9">
         <v>1835.6333</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="8">
         <v>6398</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="9">
         <v>209.0163</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="16">
         <v>6398</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="9">
         <v>2.4013</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="16">
         <v>6398</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="9">
         <v>8.6783999999999999</v>
       </c>
-      <c r="M33" s="18">
+      <c r="M33" s="16">
         <v>6398</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="9">
         <v>0.99760000000000004</v>
       </c>
-      <c r="O33" s="20">
+      <c r="O33" s="18">
         <v>6398</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P33" s="9">
         <v>0.96340000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="9">
         <v>120</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <v>9730</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="9">
         <v>642.27980000000002</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="8">
         <v>9730</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="9">
         <v>1725.7485999999999</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="8">
         <v>9730</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="9">
         <v>187.7929</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="16">
         <v>9699</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="9">
         <v>72.093800000000002</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="16">
         <v>9699</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="9">
         <v>11.762</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M34" s="16">
         <v>9699</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="9">
         <v>9.6241000000000003</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O34" s="18">
         <v>9699</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="9">
         <v>15.0014</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="9">
         <v>130</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <v>6409</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="9">
         <v>672.95280000000002</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="8">
         <v>6409</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="9">
         <v>1820.3896</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="8">
         <v>6409</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="9">
         <v>206.2603</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="16">
         <v>6398</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="9">
         <v>16.792999999999999</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="16">
         <v>6398</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="9">
         <v>1.3019000000000001</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M35" s="16">
         <v>6398</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="9">
         <v>3.3136999999999999</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="18">
         <v>6398</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="9">
         <v>0.71730000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="9">
         <v>130</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <v>10072</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="9">
         <v>725.25980000000004</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="8">
         <v>10072</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="9">
         <v>1815.8412000000001</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="8">
         <v>10072</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="9">
         <v>247.23480000000001</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="16">
         <v>10026</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="9">
         <v>119.08240000000001</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="16">
         <v>10026</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="9">
         <v>11.687799999999999</v>
       </c>
-      <c r="M36" s="18">
+      <c r="M36" s="16">
         <v>10026</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="9">
         <v>14.5075</v>
       </c>
-      <c r="O36" s="20">
+      <c r="O36" s="18">
         <v>10026</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P36" s="9">
         <v>20.270299999999999</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="9">
         <v>140</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="8">
         <v>6415</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="9">
         <v>715.93700000000001</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <v>6415</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="9">
         <v>1861.3788999999999</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="8">
         <v>6415</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="9">
         <v>209.4546</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="16">
         <v>6398</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="9">
         <v>28.715699999999998</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="16">
         <v>6398</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="9">
         <v>1.5104</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M37" s="16">
         <v>6398</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="9">
         <v>4.5244</v>
       </c>
-      <c r="O37" s="20">
+      <c r="O37" s="18">
         <v>6398</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P37" s="9">
         <v>5.4249999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="9">
         <v>140</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="8">
         <v>9753</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="9">
         <v>761.80229999999995</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="8">
         <v>9753</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="9">
         <v>1861.5861</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="8">
         <v>9753</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="9">
         <v>267.88630000000001</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="16">
         <v>9740</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="9">
         <v>169.7748</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="16">
         <v>9740</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="9">
         <v>20.8931</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M38" s="16">
         <v>9740</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="9">
         <v>14.488</v>
       </c>
-      <c r="O38" s="20">
+      <c r="O38" s="18">
         <v>9740</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P38" s="9">
         <v>32.532200000000003</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="9">
         <v>150</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="8">
         <v>6407</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="9">
         <v>745.79880000000003</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="8">
         <v>6407</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="9">
         <v>1850.2735</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="8">
         <v>6407</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="9">
         <v>232.2886</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="16">
         <v>6398</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="9">
         <v>60.602200000000003</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="16">
         <v>6398</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="9">
         <v>5.3829000000000002</v>
       </c>
-      <c r="M39" s="18">
+      <c r="M39" s="16">
         <v>6398</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="9">
         <v>6.5023999999999997</v>
       </c>
-      <c r="O39" s="20">
+      <c r="O39" s="18">
         <v>6398</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="9">
         <v>14.4352</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="9">
         <v>150</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="8">
         <v>9712</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="9">
         <v>665.21510000000001</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="8">
         <v>9712</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="9">
         <v>1898.5137</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="8">
         <v>9712</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="9">
         <v>216.95509999999999</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="16">
         <v>9712</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="9">
         <v>1.9048</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="16">
         <v>9712</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="9">
         <v>0.32050000000000001</v>
       </c>
-      <c r="M40" s="18">
+      <c r="M40" s="16">
         <v>9712</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N40" s="9">
         <v>2.0030999999999999</v>
       </c>
-      <c r="O40" s="20">
+      <c r="O40" s="18">
         <v>9712</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P40" s="9">
         <v>0.63390000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="9">
         <v>160</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="8">
         <v>6421</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="9">
         <v>707.98040000000003</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="8">
         <v>6421</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="9">
         <v>1822.2035000000001</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="8">
         <v>6421</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="9">
         <v>239.8229</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="16">
         <v>6398</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="9">
         <v>24.747199999999999</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K41" s="16">
         <v>6398</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="9">
         <v>1.2263999999999999</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="16">
         <v>6398</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N41" s="9">
         <v>17.3507</v>
       </c>
-      <c r="O41" s="20">
+      <c r="O41" s="18">
         <v>6398</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P41" s="9">
         <v>40.831400000000002</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="9">
         <v>160</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="8">
         <v>10206</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="9">
         <v>817.94920000000002</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="8">
         <v>10206</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="9">
         <v>1966.3447000000001</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="8">
         <v>10206</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="9">
         <v>295.65410000000003</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="16">
         <v>10182</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="9">
         <v>336.85140000000001</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="16">
         <v>10182</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="9">
         <v>27.8369</v>
       </c>
-      <c r="M42" s="18">
+      <c r="M42" s="16">
         <v>10182</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N42" s="9">
         <v>31.3643</v>
       </c>
-      <c r="O42" s="20">
+      <c r="O42" s="18">
         <v>10182</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P42" s="9">
         <v>47.676299999999998</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="9">
         <v>170</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="8">
         <v>6429</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="9">
         <v>788.06600000000003</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="8">
         <v>6429</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="9">
         <v>1904.1677</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="8">
         <v>6429</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="9">
         <v>276.07400000000001</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="16">
         <v>6398</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="9">
         <v>160.2569</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="16">
         <v>6398</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="9">
         <v>15.3216</v>
       </c>
-      <c r="M43" s="18">
+      <c r="M43" s="16">
         <v>6398</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N43" s="9">
         <v>18.097200000000001</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O43" s="18">
         <v>6398</v>
       </c>
-      <c r="P43" s="11">
+      <c r="P43" s="9">
         <v>28.323799999999999</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="9">
         <v>170</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="8">
         <v>10944</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="9">
         <v>794.39639999999997</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="8">
         <v>10944</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="9">
         <v>1895.5209</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="8">
         <v>10944</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="9">
         <v>296.13920000000002</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="16">
         <v>10944</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="9">
         <v>1.3611</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="16">
         <v>10944</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="9">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="M44" s="18">
+      <c r="M44" s="16">
         <v>10944</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N44" s="9">
         <v>3.2755000000000001</v>
       </c>
-      <c r="O44" s="20">
+      <c r="O44" s="18">
         <v>10944</v>
       </c>
-      <c r="P44" s="11">
+      <c r="P44" s="9">
         <v>3.3908999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="9">
         <v>180</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="8">
         <v>6404</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="9">
         <v>888.18640000000005</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="8">
         <v>6404</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="9">
         <v>2115.9612000000002</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="8">
         <v>6404</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="9">
         <v>320.04539999999997</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="16">
         <v>6398</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="9">
         <v>143.47210000000001</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K45" s="16">
         <v>6398</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="9">
         <v>10.191700000000001</v>
       </c>
-      <c r="M45" s="18">
+      <c r="M45" s="16">
         <v>6398</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N45" s="9">
         <v>29.1722</v>
       </c>
-      <c r="O45" s="20">
+      <c r="O45" s="18">
         <v>6398</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P45" s="9">
         <v>46.647300000000001</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="9">
         <v>180</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="8">
         <v>10925</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <v>700.69330000000002</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="8">
         <v>10925</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="9">
         <v>1870.9698000000001</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="8">
         <v>10925</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="9">
         <v>219.63980000000001</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="16">
         <v>10925</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="9">
         <v>1.5965</v>
       </c>
-      <c r="K46" s="18">
+      <c r="K46" s="16">
         <v>10925</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="9">
         <v>0.65</v>
       </c>
-      <c r="M46" s="18">
+      <c r="M46" s="16">
         <v>10925</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="9">
         <v>10.734</v>
       </c>
-      <c r="O46" s="20">
+      <c r="O46" s="18">
         <v>10925</v>
       </c>
-      <c r="P46" s="11">
+      <c r="P46" s="9">
         <v>2.0091000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="9">
         <v>190</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="8">
         <v>6414</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="9">
         <v>791.32079999999996</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="8">
         <v>6414</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="9">
         <v>1927.3067000000001</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="8">
         <v>6414</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="9">
         <v>288.13940000000002</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="16">
         <v>6398</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="9">
         <v>164.20650000000001</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="16">
         <v>6398</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="9">
         <v>10.9513</v>
       </c>
-      <c r="M47" s="18">
+      <c r="M47" s="16">
         <v>6398</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N47" s="9">
         <v>31.9621</v>
       </c>
-      <c r="O47" s="20">
+      <c r="O47" s="18">
         <v>6398</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P47" s="9">
         <v>45.554299999999998</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="9">
         <v>190</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="8">
         <v>12319</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="9">
         <v>777.0462</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="8">
         <v>12319</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="9">
         <v>1896.1239</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="8">
         <v>12319</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="9">
         <v>272.74900000000002</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="16">
         <v>12319</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="9">
         <v>3.4066000000000001</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="16">
         <v>12319</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="9">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="M48" s="18">
+      <c r="M48" s="16">
         <v>12319</v>
       </c>
-      <c r="N48" s="11">
+      <c r="N48" s="9">
         <v>3.8066</v>
       </c>
-      <c r="O48" s="20">
+      <c r="O48" s="18">
         <v>12319</v>
       </c>
-      <c r="P48" s="11">
+      <c r="P48" s="9">
         <v>3.8418000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="9">
         <v>200</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="8">
         <v>6416</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="9">
         <v>773.31569999999999</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="8">
         <v>6416</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="9">
         <v>1901.9981</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="8">
         <v>6416</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="9">
         <v>267.09730000000002</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="16">
         <v>6398</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="9">
         <v>184.1054</v>
       </c>
-      <c r="K49" s="18">
+      <c r="K49" s="16">
         <v>6398</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="9">
         <v>16.131399999999999</v>
       </c>
-      <c r="M49" s="18">
+      <c r="M49" s="16">
         <v>6398</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N49" s="9">
         <v>39.287500000000001</v>
       </c>
-      <c r="O49" s="20">
+      <c r="O49" s="18">
         <v>6398</v>
       </c>
-      <c r="P49" s="11">
+      <c r="P49" s="9">
         <v>61.730499999999999</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="9">
         <v>200</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="8">
         <v>12711</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="9">
         <v>950.0403</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="8">
         <v>12711</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="9">
         <v>2289.1008999999999</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="8">
         <v>12711</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="9">
         <v>327.50670000000002</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="16">
         <v>12711</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="9">
         <v>8.5946999999999996</v>
       </c>
-      <c r="K50" s="18">
+      <c r="K50" s="16">
         <v>12711</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50" s="9">
         <v>0.38179999999999997</v>
       </c>
-      <c r="M50" s="18">
+      <c r="M50" s="16">
         <v>12711</v>
       </c>
-      <c r="N50" s="11">
+      <c r="N50" s="9">
         <v>5.4374000000000002</v>
       </c>
-      <c r="O50" s="20">
+      <c r="O50" s="18">
         <v>12711</v>
       </c>
-      <c r="P50" s="11">
+      <c r="P50" s="9">
         <v>23.3231</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="9">
         <v>210</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="8">
         <v>11732</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="9">
         <v>806.62789999999995</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="8">
         <v>11732</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="9">
         <v>1970.1546000000001</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="8">
         <v>11732</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="9">
         <v>288.66840000000002</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I51" s="16">
         <v>11732</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="9">
         <v>12.557600000000001</v>
       </c>
-      <c r="K51" s="18">
+      <c r="K51" s="16">
         <v>11732</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L51" s="9">
         <v>0.2266</v>
       </c>
-      <c r="M51" s="18">
+      <c r="M51" s="16">
         <v>11732</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N51" s="9">
         <v>3.7040999999999999</v>
       </c>
-      <c r="O51" s="20">
+      <c r="O51" s="18">
         <v>11732</v>
       </c>
-      <c r="P51" s="11">
+      <c r="P51" s="9">
         <v>3.7023999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="9">
         <v>220</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="8">
         <v>12056</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="9">
         <v>811.28380000000004</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="8">
         <v>12056</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="9">
         <v>2080.9762000000001</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="8">
         <v>12056</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="9">
         <v>283.0761</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="16">
         <v>12056</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="9">
         <v>12.8978</v>
       </c>
-      <c r="K52" s="18">
+      <c r="K52" s="16">
         <v>12056</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52" s="9">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="M52" s="18">
+      <c r="M52" s="16">
         <v>12056</v>
       </c>
-      <c r="N52" s="11">
+      <c r="N52" s="9">
         <v>4.2034000000000002</v>
       </c>
-      <c r="O52" s="20">
+      <c r="O52" s="18">
         <v>12056</v>
       </c>
-      <c r="P52" s="11">
+      <c r="P52" s="9">
         <v>4.234</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="9">
         <v>230</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="8">
         <v>13684</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="9">
         <v>806.20989999999995</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="8">
         <v>13684</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="9">
         <v>1946.2180000000001</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="8">
         <v>13684</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53" s="9">
         <v>269.089</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="16">
         <v>13684</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="9">
         <v>3.7393000000000001</v>
       </c>
-      <c r="K53" s="18">
+      <c r="K53" s="16">
         <v>13684</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L53" s="9">
         <v>0.10929999999999999</v>
       </c>
-      <c r="M53" s="18">
+      <c r="M53" s="16">
         <v>13684</v>
       </c>
-      <c r="N53" s="11">
+      <c r="N53" s="9">
         <v>8.8101000000000003</v>
       </c>
-      <c r="O53" s="20">
+      <c r="O53" s="18">
         <v>13684</v>
       </c>
-      <c r="P53" s="11">
+      <c r="P53" s="9">
         <v>4.2582000000000004</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="9">
         <v>240</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="8">
         <v>14976</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="9">
         <v>730.70740000000001</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="8">
         <v>14976</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="9">
         <v>1951.8453</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="8">
         <v>14976</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="9">
         <v>230.58359999999999</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="16">
         <v>14976</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J54" s="9">
         <v>14.412699999999999</v>
       </c>
-      <c r="K54" s="18">
+      <c r="K54" s="16">
         <v>14976</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L54" s="9">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="M54" s="18">
+      <c r="M54" s="16">
         <v>14976</v>
       </c>
-      <c r="N54" s="11">
+      <c r="N54" s="9">
         <v>7.1542000000000003</v>
       </c>
-      <c r="O54" s="20">
+      <c r="O54" s="18">
         <v>14976</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P54" s="9">
         <v>6.4253999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="9">
         <v>250</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="8">
         <v>15527</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="9">
         <v>855.02670000000001</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="8">
         <v>15527</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="9">
         <v>2105.8197</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="8">
         <v>15527</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55" s="9">
         <v>321.01089999999999</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I55" s="16">
         <v>15527</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="9">
         <v>14.7432</v>
       </c>
-      <c r="K55" s="18">
+      <c r="K55" s="16">
         <v>15527</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="9">
         <v>0.1111</v>
       </c>
-      <c r="M55" s="18">
+      <c r="M55" s="16">
         <v>15527</v>
       </c>
-      <c r="N55" s="11">
+      <c r="N55" s="9">
         <v>8.8825000000000003</v>
       </c>
-      <c r="O55" s="20">
+      <c r="O55" s="18">
         <v>15527</v>
       </c>
-      <c r="P55" s="11">
+      <c r="P55" s="9">
         <v>4.5603999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="9">
         <v>260</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="8">
         <v>15740</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="9">
         <v>954.48919999999998</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="8">
         <v>15740</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="9">
         <v>2306.2121999999999</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="8">
         <v>15740</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="9">
         <v>340.40940000000001</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="16">
         <v>15740</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J56" s="9">
         <v>7.0293999999999999</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K56" s="16">
         <v>15740</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L56" s="9">
         <v>0.11269999999999999</v>
       </c>
-      <c r="M56" s="18">
+      <c r="M56" s="16">
         <v>15740</v>
       </c>
-      <c r="N56" s="11">
+      <c r="N56" s="9">
         <v>7.0777000000000001</v>
       </c>
-      <c r="O56" s="20">
+      <c r="O56" s="18">
         <v>15740</v>
       </c>
-      <c r="P56" s="11">
+      <c r="P56" s="9">
         <v>6.4367999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="9">
         <v>270</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="8">
         <v>16519</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="9">
         <v>976.99480000000005</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="8">
         <v>16519</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="9">
         <v>2298.2042999999999</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="8">
         <v>16519</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="9">
         <v>346.83510000000001</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I57" s="16">
         <v>16519</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="9">
         <v>10.7479</v>
       </c>
-      <c r="K57" s="18">
+      <c r="K57" s="16">
         <v>16519</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L57" s="9">
         <v>1.2303999999999999</v>
       </c>
-      <c r="M57" s="18">
+      <c r="M57" s="16">
         <v>16519</v>
       </c>
-      <c r="N57" s="11">
+      <c r="N57" s="9">
         <v>11.7865</v>
       </c>
-      <c r="O57" s="20">
+      <c r="O57" s="18">
         <v>16519</v>
       </c>
-      <c r="P57" s="11">
+      <c r="P57" s="9">
         <v>8.2073999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="9">
         <v>280</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="8">
         <v>16720</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="9">
         <v>1008.5399</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="8">
         <v>16720</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="9">
         <v>2316.2802000000001</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="8">
         <v>16720</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="9">
         <v>400.71409999999997</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I58" s="16">
         <v>16720</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J58" s="9">
         <v>10.4414</v>
       </c>
-      <c r="K58" s="18">
+      <c r="K58" s="16">
         <v>16720</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58" s="9">
         <v>0.14499999999999999</v>
       </c>
-      <c r="M58" s="18">
+      <c r="M58" s="16">
         <v>16720</v>
       </c>
-      <c r="N58" s="11">
+      <c r="N58" s="9">
         <v>7.3368000000000002</v>
       </c>
-      <c r="O58" s="20">
+      <c r="O58" s="18">
         <v>16720</v>
       </c>
-      <c r="P58" s="11">
+      <c r="P58" s="9">
         <v>10.1563</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="9">
         <v>290</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="8">
         <v>17326</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="9">
         <v>925.76599999999996</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="8">
         <v>17326</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="9">
         <v>2309.4063999999998</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="8">
         <v>17326</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="9">
         <v>356.17849999999999</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I59" s="16">
         <v>17326</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J59" s="9">
         <v>18.0031</v>
       </c>
-      <c r="K59" s="18">
+      <c r="K59" s="16">
         <v>17326</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L59" s="9">
         <v>0.12790000000000001</v>
       </c>
-      <c r="M59" s="18">
+      <c r="M59" s="16">
         <v>17326</v>
       </c>
-      <c r="N59" s="11">
+      <c r="N59" s="9">
         <v>10.0038</v>
       </c>
-      <c r="O59" s="20">
+      <c r="O59" s="18">
         <v>17326</v>
       </c>
-      <c r="P59" s="11">
+      <c r="P59" s="9">
         <v>10.314</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="11">
         <v>300</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="10">
         <v>18144</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="11">
         <v>1021.8808</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="10">
         <v>18144</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="11">
         <v>2329.3582000000001</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="10">
         <v>18144</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="11">
         <v>365.21289999999999</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I60" s="17">
         <v>18144</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="11">
         <v>11.073399999999999</v>
       </c>
-      <c r="K60" s="19">
+      <c r="K60" s="17">
         <v>18144</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L60" s="11">
         <v>0.98140000000000005</v>
       </c>
-      <c r="M60" s="19">
+      <c r="M60" s="17">
         <v>18144</v>
       </c>
-      <c r="N60" s="13">
+      <c r="N60" s="11">
         <v>11.093400000000001</v>
       </c>
-      <c r="O60" s="21">
+      <c r="O60" s="19">
         <v>18144</v>
       </c>
-      <c r="P60" s="13">
+      <c r="P60" s="11">
         <v>8.6319999999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="14" t="s">
+    <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C65" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="8" t="s">
+      <c r="D65" s="41"/>
+      <c r="E65" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="8" t="s">
+      <c r="F65" s="41"/>
+      <c r="G65" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H112" s="9"/>
-      <c r="I112" s="24" t="s">
+      <c r="H65" s="41"/>
+      <c r="I65" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J112" s="25"/>
-      <c r="K112" s="8" t="s">
+      <c r="J65" s="43"/>
+      <c r="K65" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L112" s="9"/>
-      <c r="M112" s="8" t="s">
+      <c r="L65" s="41"/>
+      <c r="M65" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="N112" s="9"/>
-      <c r="O112" s="8" t="s">
+      <c r="N65" s="41"/>
+      <c r="O65" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="P112" s="9"/>
-      <c r="Q112" s="32" t="s">
+      <c r="P65" s="41"/>
+      <c r="Q65" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="R112" s="33"/>
-      <c r="S112" s="34"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="39"/>
     </row>
-    <row r="113" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
+    <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B66" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="G66" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H113" s="6" t="s">
+      <c r="H66" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I113" s="26" t="s">
+      <c r="I66" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J113" s="27" t="s">
+      <c r="J66" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="K113" s="5" t="s">
+      <c r="K66" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L113" s="7" t="s">
+      <c r="L66" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M113" s="5" t="s">
+      <c r="M66" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N113" s="7" t="s">
+      <c r="N66" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O113" s="5" t="s">
+      <c r="O66" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P113" s="7" t="s">
+      <c r="P66" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Q113" s="39" t="s">
+      <c r="Q66" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="R113" s="40" t="s">
+      <c r="R66" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S113" s="41" t="s">
+      <c r="S66" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="31" t="s">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B114" s="28">
+      <c r="B67" s="24">
         <v>10</v>
       </c>
-      <c r="C114" s="22">
+      <c r="C67" s="20">
         <v>8189</v>
       </c>
-      <c r="D114" s="23">
+      <c r="D67" s="21">
         <v>534.15660000000003</v>
       </c>
-      <c r="E114" s="22">
+      <c r="E67" s="20">
         <v>8189</v>
       </c>
-      <c r="F114" s="23">
+      <c r="F67" s="21">
         <v>1626.1470999999999</v>
       </c>
-      <c r="G114" s="22">
+      <c r="G67" s="20">
         <v>8189</v>
       </c>
-      <c r="H114" s="23">
+      <c r="H67" s="21">
         <v>116.8257</v>
       </c>
-      <c r="I114" s="22">
+      <c r="I67" s="20">
         <v>8189</v>
       </c>
-      <c r="J114" s="23">
+      <c r="J67" s="21">
         <v>0.60519999999999996</v>
       </c>
-      <c r="K114" s="22">
+      <c r="K67" s="20">
         <v>8189</v>
       </c>
-      <c r="L114" s="23">
+      <c r="L67" s="21">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="M114" s="22">
+      <c r="M67" s="20">
         <v>8189</v>
       </c>
-      <c r="N114" s="23">
+      <c r="N67" s="21">
         <v>0.57869999999999999</v>
       </c>
-      <c r="O114" s="22">
+      <c r="O67" s="20">
         <v>8189</v>
       </c>
-      <c r="P114" s="23">
+      <c r="P67" s="21">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="Q114" s="35">
-        <f>IF(C114&lt;&gt;I114,1,0)</f>
+      <c r="Q67" s="28">
+        <f>IF(C67&lt;&gt;I67,1,0)</f>
         <v>0</v>
       </c>
-      <c r="R114" s="35">
-        <f>IF(E114&lt;&gt;I114,1,0)</f>
+      <c r="R67" s="28">
+        <f>IF(E67&lt;&gt;I67,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S114" s="3">
-        <f>IF(G114&lt;&gt;I114,1,0)</f>
+      <c r="S67" s="3">
+        <f>IF(G67&lt;&gt;I67,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="16" t="s">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B115" s="29">
+      <c r="B68" s="25">
         <v>20</v>
       </c>
-      <c r="C115" s="18">
+      <c r="C68" s="16">
         <v>9106</v>
       </c>
-      <c r="D115" s="11">
+      <c r="D68" s="9">
         <v>524.88509999999997</v>
       </c>
-      <c r="E115" s="18">
+      <c r="E68" s="16">
         <v>9106</v>
       </c>
-      <c r="F115" s="11">
+      <c r="F68" s="9">
         <v>1634.8426999999999</v>
       </c>
-      <c r="G115" s="18">
+      <c r="G68" s="16">
         <v>9106</v>
       </c>
-      <c r="H115" s="11">
+      <c r="H68" s="9">
         <v>118.0236</v>
       </c>
-      <c r="I115" s="18">
+      <c r="I68" s="16">
         <v>9106</v>
       </c>
-      <c r="J115" s="11">
+      <c r="J68" s="9">
         <v>0.1802</v>
       </c>
-      <c r="K115" s="18">
+      <c r="K68" s="16">
         <v>9106</v>
       </c>
-      <c r="L115" s="11">
+      <c r="L68" s="9">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="M115" s="18">
+      <c r="M68" s="16">
         <v>9106</v>
       </c>
-      <c r="N115" s="11">
+      <c r="N68" s="9">
         <v>0.1774</v>
       </c>
-      <c r="O115" s="18">
+      <c r="O68" s="16">
         <v>9106</v>
       </c>
-      <c r="P115" s="11">
+      <c r="P68" s="9">
         <v>0.18140000000000001</v>
       </c>
-      <c r="Q115" s="35">
-        <f t="shared" ref="Q115:Q157" si="0">IF(C115&lt;&gt;I115,1,0)</f>
+      <c r="Q68" s="28">
+        <f t="shared" ref="Q68:Q110" si="0">IF(C68&lt;&gt;I68,1,0)</f>
         <v>0</v>
       </c>
-      <c r="R115" s="35">
-        <f t="shared" ref="R115:R157" si="1">IF(E115&lt;&gt;I115,1,0)</f>
+      <c r="R68" s="28">
+        <f t="shared" ref="R68:R110" si="1">IF(E68&lt;&gt;I68,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S115" s="3">
-        <f t="shared" ref="S115:S157" si="2">IF(G115&lt;&gt;I115,1,0)</f>
+      <c r="S68" s="3">
+        <f t="shared" ref="S68:S110" si="2">IF(G68&lt;&gt;I68,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="16" t="s">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B116" s="29">
+      <c r="B69" s="25">
         <v>30</v>
       </c>
-      <c r="C116" s="18">
+      <c r="C69" s="16">
         <v>9833</v>
       </c>
-      <c r="D116" s="11">
+      <c r="D69" s="9">
         <v>536.34559999999999</v>
       </c>
-      <c r="E116" s="18">
+      <c r="E69" s="16">
         <v>9833</v>
       </c>
-      <c r="F116" s="11">
+      <c r="F69" s="9">
         <v>1708.0671</v>
       </c>
-      <c r="G116" s="18">
+      <c r="G69" s="16">
         <v>9833</v>
       </c>
-      <c r="H116" s="11">
+      <c r="H69" s="9">
         <v>136.65170000000001</v>
       </c>
-      <c r="I116" s="18">
+      <c r="I69" s="16">
         <v>9833</v>
       </c>
-      <c r="J116" s="11">
+      <c r="J69" s="9">
         <v>1.0599000000000001</v>
       </c>
-      <c r="K116" s="18">
+      <c r="K69" s="16">
         <v>9833</v>
       </c>
-      <c r="L116" s="11">
+      <c r="L69" s="9">
         <v>0.29930000000000001</v>
       </c>
-      <c r="M116" s="18">
+      <c r="M69" s="16">
         <v>9833</v>
       </c>
-      <c r="N116" s="11">
+      <c r="N69" s="9">
         <v>7.1247999999999996</v>
       </c>
-      <c r="O116" s="18">
+      <c r="O69" s="16">
         <v>9833</v>
       </c>
-      <c r="P116" s="11">
+      <c r="P69" s="9">
         <v>0.3528</v>
       </c>
-      <c r="Q116" s="35">
+      <c r="Q69" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R116" s="35">
+      <c r="R69" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S116" s="3">
+      <c r="S69" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="16" t="s">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B117" s="29">
+      <c r="B70" s="25">
         <v>40</v>
       </c>
-      <c r="C117" s="18">
+      <c r="C70" s="16">
         <v>8872</v>
       </c>
-      <c r="D117" s="11">
+      <c r="D70" s="9">
         <v>528.89409999999998</v>
       </c>
-      <c r="E117" s="18">
+      <c r="E70" s="16">
         <v>8872</v>
       </c>
-      <c r="F117" s="11">
+      <c r="F70" s="9">
         <v>1679.5046</v>
       </c>
-      <c r="G117" s="18">
+      <c r="G70" s="16">
         <v>8872</v>
       </c>
-      <c r="H117" s="11">
+      <c r="H70" s="9">
         <v>121.60509999999999</v>
       </c>
-      <c r="I117" s="18">
+      <c r="I70" s="16">
         <v>8872</v>
       </c>
-      <c r="J117" s="11">
+      <c r="J70" s="9">
         <v>1.05</v>
       </c>
-      <c r="K117" s="18">
+      <c r="K70" s="16">
         <v>8872</v>
       </c>
-      <c r="L117" s="11">
+      <c r="L70" s="9">
         <v>0.1547</v>
       </c>
-      <c r="M117" s="18">
+      <c r="M70" s="16">
         <v>8872</v>
       </c>
-      <c r="N117" s="11">
+      <c r="N70" s="9">
         <v>0.76180000000000003</v>
       </c>
-      <c r="O117" s="18">
+      <c r="O70" s="16">
         <v>8872</v>
       </c>
-      <c r="P117" s="11">
+      <c r="P70" s="9">
         <v>0.55200000000000005</v>
       </c>
-      <c r="Q117" s="35">
+      <c r="Q70" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R117" s="35">
+      <c r="R70" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S117" s="3">
+      <c r="S70" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="16" t="s">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B118" s="29">
+      <c r="B71" s="25">
         <v>50</v>
       </c>
-      <c r="C118" s="18">
+      <c r="C71" s="16">
         <v>9388</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D71" s="9">
         <v>587.87789999999995</v>
       </c>
-      <c r="E118" s="18">
+      <c r="E71" s="16">
         <v>9388</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F71" s="9">
         <v>1702.3764000000001</v>
       </c>
-      <c r="G118" s="18">
+      <c r="G71" s="16">
         <v>9388</v>
       </c>
-      <c r="H118" s="11">
+      <c r="H71" s="9">
         <v>165.60759999999999</v>
       </c>
-      <c r="I118" s="18">
+      <c r="I71" s="16">
         <v>9388</v>
       </c>
-      <c r="J118" s="11">
+      <c r="J71" s="9">
         <v>0.94359999999999999</v>
       </c>
-      <c r="K118" s="18">
+      <c r="K71" s="16">
         <v>9388</v>
       </c>
-      <c r="L118" s="11">
+      <c r="L71" s="9">
         <v>0.16689999999999999</v>
       </c>
-      <c r="M118" s="18">
+      <c r="M71" s="16">
         <v>9388</v>
       </c>
-      <c r="N118" s="11">
+      <c r="N71" s="9">
         <v>1.1108</v>
       </c>
-      <c r="O118" s="18">
+      <c r="O71" s="16">
         <v>9388</v>
       </c>
-      <c r="P118" s="11">
+      <c r="P71" s="9">
         <v>0.51470000000000005</v>
       </c>
-      <c r="Q118" s="35">
+      <c r="Q71" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R118" s="35">
+      <c r="R71" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S118" s="3">
+      <c r="S71" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="16" t="s">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B119" s="29">
+      <c r="B72" s="25">
         <v>60</v>
       </c>
-      <c r="C119" s="18">
+      <c r="C72" s="16">
         <v>8878</v>
       </c>
-      <c r="D119" s="11">
+      <c r="D72" s="9">
         <v>565.51620000000003</v>
       </c>
-      <c r="E119" s="18">
+      <c r="E72" s="16">
         <v>8878</v>
       </c>
-      <c r="F119" s="11">
+      <c r="F72" s="9">
         <v>1705.5661</v>
       </c>
-      <c r="G119" s="18">
+      <c r="G72" s="16">
         <v>8878</v>
       </c>
-      <c r="H119" s="11">
+      <c r="H72" s="9">
         <v>155.7072</v>
       </c>
-      <c r="I119" s="18">
+      <c r="I72" s="16">
         <v>8864</v>
       </c>
-      <c r="J119" s="11">
+      <c r="J72" s="9">
         <v>4.2133000000000003</v>
       </c>
-      <c r="K119" s="18">
+      <c r="K72" s="16">
         <v>8864</v>
       </c>
-      <c r="L119" s="11">
+      <c r="L72" s="9">
         <v>1.0371999999999999</v>
       </c>
-      <c r="M119" s="18">
+      <c r="M72" s="16">
         <v>8864</v>
       </c>
-      <c r="N119" s="11">
+      <c r="N72" s="9">
         <v>1.6154999999999999</v>
       </c>
-      <c r="O119" s="18">
+      <c r="O72" s="16">
         <v>8864</v>
       </c>
-      <c r="P119" s="11">
+      <c r="P72" s="9">
         <v>2.7393000000000001</v>
       </c>
-      <c r="Q119" s="37">
+      <c r="Q72" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R119" s="37">
+      <c r="R72" s="30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S119" s="38">
+      <c r="S72" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="16" t="s">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B120" s="29">
+      <c r="B73" s="25">
         <v>70</v>
       </c>
-      <c r="C120" s="18">
+      <c r="C73" s="16">
         <v>9095</v>
       </c>
-      <c r="D120" s="11">
+      <c r="D73" s="9">
         <v>671.76919999999996</v>
       </c>
-      <c r="E120" s="18">
+      <c r="E73" s="16">
         <v>9095</v>
       </c>
-      <c r="F120" s="11">
+      <c r="F73" s="9">
         <v>1790.5567000000001</v>
       </c>
-      <c r="G120" s="18">
+      <c r="G73" s="16">
         <v>9095</v>
       </c>
-      <c r="H120" s="11">
+      <c r="H73" s="9">
         <v>191.47300000000001</v>
       </c>
-      <c r="I120" s="18">
+      <c r="I73" s="16">
         <v>9095</v>
       </c>
-      <c r="J120" s="11">
+      <c r="J73" s="9">
         <v>0.34139999999999998</v>
       </c>
-      <c r="K120" s="18">
+      <c r="K73" s="16">
         <v>9095</v>
       </c>
-      <c r="L120" s="11">
+      <c r="L73" s="9">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="M120" s="18">
+      <c r="M73" s="16">
         <v>9095</v>
       </c>
-      <c r="N120" s="11">
+      <c r="N73" s="9">
         <v>1.1161000000000001</v>
       </c>
-      <c r="O120" s="18">
+      <c r="O73" s="16">
         <v>9095</v>
       </c>
-      <c r="P120" s="11">
+      <c r="P73" s="9">
         <v>0.17480000000000001</v>
       </c>
-      <c r="Q120" s="35">
+      <c r="Q73" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R120" s="35">
+      <c r="R73" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S120" s="3">
+      <c r="S73" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="16" t="s">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B121" s="29">
+      <c r="B74" s="25">
         <v>80</v>
       </c>
-      <c r="C121" s="18">
+      <c r="C74" s="16">
         <v>9878</v>
       </c>
-      <c r="D121" s="11">
+      <c r="D74" s="9">
         <v>570.62599999999998</v>
       </c>
-      <c r="E121" s="18">
+      <c r="E74" s="16">
         <v>9878</v>
       </c>
-      <c r="F121" s="11">
+      <c r="F74" s="9">
         <v>1805.1407999999999</v>
       </c>
-      <c r="G121" s="18">
+      <c r="G74" s="16">
         <v>9878</v>
       </c>
-      <c r="H121" s="11">
+      <c r="H74" s="9">
         <v>143.7193</v>
       </c>
-      <c r="I121" s="18">
+      <c r="I74" s="16">
         <v>9878</v>
       </c>
-      <c r="J121" s="11">
+      <c r="J74" s="9">
         <v>0.75039999999999996</v>
       </c>
-      <c r="K121" s="18">
+      <c r="K74" s="16">
         <v>9878</v>
       </c>
-      <c r="L121" s="11">
+      <c r="L74" s="9">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="M121" s="18">
+      <c r="M74" s="16">
         <v>9878</v>
       </c>
-      <c r="N121" s="11">
+      <c r="N74" s="9">
         <v>0.82299999999999995</v>
       </c>
-      <c r="O121" s="18">
+      <c r="O74" s="16">
         <v>9878</v>
       </c>
-      <c r="P121" s="11">
+      <c r="P74" s="9">
         <v>0.75309999999999999</v>
       </c>
-      <c r="Q121" s="35">
+      <c r="Q74" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R121" s="35">
+      <c r="R74" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S121" s="3">
+      <c r="S74" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B122" s="29">
+      <c r="B75" s="25">
         <v>90</v>
       </c>
-      <c r="C122" s="18">
+      <c r="C75" s="16">
         <v>9180</v>
       </c>
-      <c r="D122" s="11">
+      <c r="D75" s="9">
         <v>747.04740000000004</v>
       </c>
-      <c r="E122" s="18">
+      <c r="E75" s="16">
         <v>9180</v>
       </c>
-      <c r="F122" s="11">
+      <c r="F75" s="9">
         <v>1883.8014000000001</v>
       </c>
-      <c r="G122" s="18">
+      <c r="G75" s="16">
         <v>9180</v>
       </c>
-      <c r="H122" s="11">
+      <c r="H75" s="9">
         <v>201.02539999999999</v>
       </c>
-      <c r="I122" s="18">
+      <c r="I75" s="16">
         <v>9151</v>
       </c>
-      <c r="J122" s="11">
+      <c r="J75" s="9">
         <v>29.198799999999999</v>
       </c>
-      <c r="K122" s="18">
+      <c r="K75" s="16">
         <v>9151</v>
       </c>
-      <c r="L122" s="11">
+      <c r="L75" s="9">
         <v>7.0271999999999997</v>
       </c>
-      <c r="M122" s="18">
+      <c r="M75" s="16">
         <v>9151</v>
       </c>
-      <c r="N122" s="11">
+      <c r="N75" s="9">
         <v>4.1363000000000003</v>
       </c>
-      <c r="O122" s="18">
+      <c r="O75" s="16">
         <v>9151</v>
       </c>
-      <c r="P122" s="11">
+      <c r="P75" s="9">
         <v>4.8083999999999998</v>
       </c>
-      <c r="Q122" s="37">
+      <c r="Q75" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R122" s="37">
+      <c r="R75" s="30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S122" s="38">
+      <c r="S75" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B123" s="29">
+      <c r="B76" s="25">
         <v>100</v>
       </c>
-      <c r="C123" s="18">
+      <c r="C76" s="16">
         <v>8962</v>
       </c>
-      <c r="D123" s="11">
+      <c r="D76" s="9">
         <v>627.89340000000004</v>
       </c>
-      <c r="E123" s="18">
+      <c r="E76" s="16">
         <v>8962</v>
       </c>
-      <c r="F123" s="11">
+      <c r="F76" s="9">
         <v>1790.2601</v>
       </c>
-      <c r="G123" s="18">
+      <c r="G76" s="16">
         <v>8962</v>
       </c>
-      <c r="H123" s="11">
+      <c r="H76" s="9">
         <v>195.18260000000001</v>
       </c>
-      <c r="I123" s="18">
+      <c r="I76" s="16">
         <v>8941</v>
       </c>
-      <c r="J123" s="11">
+      <c r="J76" s="9">
         <v>29.624099999999999</v>
       </c>
-      <c r="K123" s="18">
+      <c r="K76" s="16">
         <v>8941</v>
       </c>
-      <c r="L123" s="11">
+      <c r="L76" s="9">
         <v>5.5189000000000004</v>
       </c>
-      <c r="M123" s="18">
+      <c r="M76" s="16">
         <v>8941</v>
       </c>
-      <c r="N123" s="11">
+      <c r="N76" s="9">
         <v>6.2077999999999998</v>
       </c>
-      <c r="O123" s="18">
+      <c r="O76" s="16">
         <v>8941</v>
       </c>
-      <c r="P123" s="11">
+      <c r="P76" s="9">
         <v>6.8567</v>
       </c>
-      <c r="Q123" s="37">
+      <c r="Q76" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R123" s="37">
+      <c r="R76" s="30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S123" s="38">
+      <c r="S76" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="16" t="s">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B124" s="29">
+      <c r="B77" s="25">
         <v>110</v>
       </c>
-      <c r="C124" s="18">
+      <c r="C77" s="16">
         <v>9864</v>
       </c>
-      <c r="D124" s="11">
+      <c r="D77" s="9">
         <v>627.07669999999996</v>
       </c>
-      <c r="E124" s="18">
+      <c r="E77" s="16">
         <v>9864</v>
       </c>
-      <c r="F124" s="11">
+      <c r="F77" s="9">
         <v>1796.5944</v>
       </c>
-      <c r="G124" s="18">
+      <c r="G77" s="16">
         <v>9864</v>
       </c>
-      <c r="H124" s="11">
+      <c r="H77" s="9">
         <v>164.75829999999999</v>
       </c>
-      <c r="I124" s="18">
+      <c r="I77" s="16">
         <v>9788</v>
       </c>
-      <c r="J124" s="11">
+      <c r="J77" s="9">
         <v>46.5246</v>
       </c>
-      <c r="K124" s="18">
+      <c r="K77" s="16">
         <v>9788</v>
       </c>
-      <c r="L124" s="11">
+      <c r="L77" s="9">
         <v>6.0555000000000003</v>
       </c>
-      <c r="M124" s="18">
+      <c r="M77" s="16">
         <v>9788</v>
       </c>
-      <c r="N124" s="11">
+      <c r="N77" s="9">
         <v>9.1625999999999994</v>
       </c>
-      <c r="O124" s="18">
+      <c r="O77" s="16">
         <v>9788</v>
       </c>
-      <c r="P124" s="11">
+      <c r="P77" s="9">
         <v>13.1135</v>
       </c>
-      <c r="Q124" s="37">
+      <c r="Q77" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R124" s="37">
+      <c r="R77" s="30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S124" s="38">
+      <c r="S77" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="16" t="s">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B125" s="29">
+      <c r="B78" s="25">
         <v>120</v>
       </c>
-      <c r="C125" s="18">
+      <c r="C78" s="16">
         <v>9730</v>
       </c>
-      <c r="D125" s="11">
+      <c r="D78" s="9">
         <v>642.27980000000002</v>
       </c>
-      <c r="E125" s="18">
+      <c r="E78" s="16">
         <v>9730</v>
       </c>
-      <c r="F125" s="11">
+      <c r="F78" s="9">
         <v>1725.7485999999999</v>
       </c>
-      <c r="G125" s="18">
+      <c r="G78" s="16">
         <v>9730</v>
       </c>
-      <c r="H125" s="11">
+      <c r="H78" s="9">
         <v>187.7929</v>
       </c>
-      <c r="I125" s="18">
+      <c r="I78" s="16">
         <v>9699</v>
       </c>
-      <c r="J125" s="11">
+      <c r="J78" s="9">
         <v>72.093800000000002</v>
       </c>
-      <c r="K125" s="18">
+      <c r="K78" s="16">
         <v>9699</v>
       </c>
-      <c r="L125" s="11">
+      <c r="L78" s="9">
         <v>11.762</v>
       </c>
-      <c r="M125" s="18">
+      <c r="M78" s="16">
         <v>9699</v>
       </c>
-      <c r="N125" s="11">
+      <c r="N78" s="9">
         <v>9.6241000000000003</v>
       </c>
-      <c r="O125" s="18">
+      <c r="O78" s="16">
         <v>9699</v>
       </c>
-      <c r="P125" s="11">
+      <c r="P78" s="9">
         <v>15.0014</v>
       </c>
-      <c r="Q125" s="37">
+      <c r="Q78" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R125" s="37">
+      <c r="R78" s="30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S125" s="38">
+      <c r="S78" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="16" t="s">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B126" s="29">
+      <c r="B79" s="25">
         <v>130</v>
       </c>
-      <c r="C126" s="18">
+      <c r="C79" s="16">
         <v>10072</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D79" s="9">
         <v>725.25980000000004</v>
       </c>
-      <c r="E126" s="18">
+      <c r="E79" s="16">
         <v>10072</v>
       </c>
-      <c r="F126" s="11">
+      <c r="F79" s="9">
         <v>1815.8412000000001</v>
       </c>
-      <c r="G126" s="18">
+      <c r="G79" s="16">
         <v>10072</v>
       </c>
-      <c r="H126" s="11">
+      <c r="H79" s="9">
         <v>247.23480000000001</v>
       </c>
-      <c r="I126" s="18">
+      <c r="I79" s="16">
         <v>10026</v>
       </c>
-      <c r="J126" s="11">
+      <c r="J79" s="9">
         <v>119.08240000000001</v>
       </c>
-      <c r="K126" s="18">
+      <c r="K79" s="16">
         <v>10026</v>
       </c>
-      <c r="L126" s="11">
+      <c r="L79" s="9">
         <v>11.687799999999999</v>
       </c>
-      <c r="M126" s="18">
+      <c r="M79" s="16">
         <v>10026</v>
       </c>
-      <c r="N126" s="11">
+      <c r="N79" s="9">
         <v>14.5075</v>
       </c>
-      <c r="O126" s="18">
+      <c r="O79" s="16">
         <v>10026</v>
       </c>
-      <c r="P126" s="11">
+      <c r="P79" s="9">
         <v>20.270299999999999</v>
       </c>
-      <c r="Q126" s="37">
+      <c r="Q79" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R126" s="37">
+      <c r="R79" s="30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S126" s="38">
+      <c r="S79" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="16" t="s">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B127" s="29">
+      <c r="B80" s="25">
         <v>140</v>
       </c>
-      <c r="C127" s="18">
+      <c r="C80" s="16">
         <v>9753</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D80" s="9">
         <v>761.80229999999995</v>
       </c>
-      <c r="E127" s="18">
+      <c r="E80" s="16">
         <v>9753</v>
       </c>
-      <c r="F127" s="11">
+      <c r="F80" s="9">
         <v>1861.5861</v>
       </c>
-      <c r="G127" s="18">
+      <c r="G80" s="16">
         <v>9753</v>
       </c>
-      <c r="H127" s="11">
+      <c r="H80" s="9">
         <v>267.88630000000001</v>
       </c>
-      <c r="I127" s="18">
+      <c r="I80" s="16">
         <v>9740</v>
       </c>
-      <c r="J127" s="11">
+      <c r="J80" s="9">
         <v>169.7748</v>
       </c>
-      <c r="K127" s="18">
+      <c r="K80" s="16">
         <v>9740</v>
       </c>
-      <c r="L127" s="11">
+      <c r="L80" s="9">
         <v>20.8931</v>
       </c>
-      <c r="M127" s="18">
+      <c r="M80" s="16">
         <v>9740</v>
       </c>
-      <c r="N127" s="11">
+      <c r="N80" s="9">
         <v>14.488</v>
       </c>
-      <c r="O127" s="18">
+      <c r="O80" s="16">
         <v>9740</v>
       </c>
-      <c r="P127" s="11">
+      <c r="P80" s="9">
         <v>32.532200000000003</v>
       </c>
-      <c r="Q127" s="37">
+      <c r="Q80" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R127" s="37">
+      <c r="R80" s="30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S127" s="38">
+      <c r="S80" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="16" t="s">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B128" s="29">
+      <c r="B81" s="25">
         <v>150</v>
       </c>
-      <c r="C128" s="18">
+      <c r="C81" s="16">
         <v>9712</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D81" s="9">
         <v>665.21510000000001</v>
       </c>
-      <c r="E128" s="18">
+      <c r="E81" s="16">
         <v>9712</v>
       </c>
-      <c r="F128" s="11">
+      <c r="F81" s="9">
         <v>1898.5137</v>
       </c>
-      <c r="G128" s="18">
+      <c r="G81" s="16">
         <v>9712</v>
       </c>
-      <c r="H128" s="11">
+      <c r="H81" s="9">
         <v>216.95509999999999</v>
       </c>
-      <c r="I128" s="18">
+      <c r="I81" s="16">
         <v>9712</v>
       </c>
-      <c r="J128" s="11">
+      <c r="J81" s="9">
         <v>1.9048</v>
       </c>
-      <c r="K128" s="18">
+      <c r="K81" s="16">
         <v>9712</v>
       </c>
-      <c r="L128" s="11">
+      <c r="L81" s="9">
         <v>0.32050000000000001</v>
       </c>
-      <c r="M128" s="18">
+      <c r="M81" s="16">
         <v>9712</v>
       </c>
-      <c r="N128" s="11">
+      <c r="N81" s="9">
         <v>2.0030999999999999</v>
       </c>
-      <c r="O128" s="18">
+      <c r="O81" s="16">
         <v>9712</v>
       </c>
-      <c r="P128" s="11">
+      <c r="P81" s="9">
         <v>0.63390000000000002</v>
       </c>
-      <c r="Q128" s="35">
+      <c r="Q81" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R128" s="35">
+      <c r="R81" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S128" s="3">
+      <c r="S81" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="16" t="s">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B129" s="29">
+      <c r="B82" s="25">
         <v>160</v>
       </c>
-      <c r="C129" s="18">
+      <c r="C82" s="16">
         <v>10206</v>
       </c>
-      <c r="D129" s="11">
+      <c r="D82" s="9">
         <v>817.94920000000002</v>
       </c>
-      <c r="E129" s="18">
+      <c r="E82" s="16">
         <v>10206</v>
       </c>
-      <c r="F129" s="11">
+      <c r="F82" s="9">
         <v>1966.3447000000001</v>
       </c>
-      <c r="G129" s="18">
+      <c r="G82" s="16">
         <v>10206</v>
       </c>
-      <c r="H129" s="11">
+      <c r="H82" s="9">
         <v>295.65410000000003</v>
       </c>
-      <c r="I129" s="18">
+      <c r="I82" s="16">
         <v>10182</v>
       </c>
-      <c r="J129" s="11">
+      <c r="J82" s="9">
         <v>336.85140000000001</v>
       </c>
-      <c r="K129" s="18">
+      <c r="K82" s="16">
         <v>10182</v>
       </c>
-      <c r="L129" s="11">
+      <c r="L82" s="9">
         <v>27.8369</v>
       </c>
-      <c r="M129" s="18">
+      <c r="M82" s="16">
         <v>10182</v>
       </c>
-      <c r="N129" s="11">
+      <c r="N82" s="9">
         <v>31.3643</v>
       </c>
-      <c r="O129" s="18">
+      <c r="O82" s="16">
         <v>10182</v>
       </c>
-      <c r="P129" s="11">
+      <c r="P82" s="9">
         <v>47.676299999999998</v>
       </c>
-      <c r="Q129" s="37">
+      <c r="Q82" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R129" s="37">
+      <c r="R82" s="30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S129" s="38">
+      <c r="S82" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="16" t="s">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B130" s="29">
+      <c r="B83" s="25">
         <v>170</v>
       </c>
-      <c r="C130" s="18">
+      <c r="C83" s="16">
         <v>10944</v>
       </c>
-      <c r="D130" s="11">
+      <c r="D83" s="9">
         <v>794.39639999999997</v>
       </c>
-      <c r="E130" s="18">
+      <c r="E83" s="16">
         <v>10944</v>
       </c>
-      <c r="F130" s="11">
+      <c r="F83" s="9">
         <v>1895.5209</v>
       </c>
-      <c r="G130" s="18">
+      <c r="G83" s="16">
         <v>10944</v>
       </c>
-      <c r="H130" s="11">
+      <c r="H83" s="9">
         <v>296.13920000000002</v>
       </c>
-      <c r="I130" s="18">
+      <c r="I83" s="16">
         <v>10944</v>
       </c>
-      <c r="J130" s="11">
+      <c r="J83" s="9">
         <v>1.3611</v>
       </c>
-      <c r="K130" s="18">
+      <c r="K83" s="16">
         <v>10944</v>
       </c>
-      <c r="L130" s="11">
+      <c r="L83" s="9">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="M130" s="18">
+      <c r="M83" s="16">
         <v>10944</v>
       </c>
-      <c r="N130" s="11">
+      <c r="N83" s="9">
         <v>3.2755000000000001</v>
       </c>
-      <c r="O130" s="18">
+      <c r="O83" s="16">
         <v>10944</v>
       </c>
-      <c r="P130" s="11">
+      <c r="P83" s="9">
         <v>3.3908999999999998</v>
       </c>
-      <c r="Q130" s="35">
+      <c r="Q83" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R130" s="35">
+      <c r="R83" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S130" s="3">
+      <c r="S83" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="16" t="s">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B131" s="29">
+      <c r="B84" s="25">
         <v>180</v>
       </c>
-      <c r="C131" s="18">
+      <c r="C84" s="16">
         <v>10925</v>
       </c>
-      <c r="D131" s="11">
+      <c r="D84" s="9">
         <v>700.69330000000002</v>
       </c>
-      <c r="E131" s="18">
+      <c r="E84" s="16">
         <v>10925</v>
       </c>
-      <c r="F131" s="11">
+      <c r="F84" s="9">
         <v>1870.9698000000001</v>
       </c>
-      <c r="G131" s="18">
+      <c r="G84" s="16">
         <v>10925</v>
       </c>
-      <c r="H131" s="11">
+      <c r="H84" s="9">
         <v>219.63980000000001</v>
       </c>
-      <c r="I131" s="18">
+      <c r="I84" s="16">
         <v>10925</v>
       </c>
-      <c r="J131" s="11">
+      <c r="J84" s="9">
         <v>1.5965</v>
       </c>
-      <c r="K131" s="18">
+      <c r="K84" s="16">
         <v>10925</v>
       </c>
-      <c r="L131" s="11">
+      <c r="L84" s="9">
         <v>0.65</v>
       </c>
-      <c r="M131" s="18">
+      <c r="M84" s="16">
         <v>10925</v>
       </c>
-      <c r="N131" s="11">
+      <c r="N84" s="9">
         <v>10.734</v>
       </c>
-      <c r="O131" s="18">
+      <c r="O84" s="16">
         <v>10925</v>
       </c>
-      <c r="P131" s="11">
+      <c r="P84" s="9">
         <v>2.0091000000000001</v>
       </c>
-      <c r="Q131" s="35">
+      <c r="Q84" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R131" s="35">
+      <c r="R84" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S131" s="3">
+      <c r="S84" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="16" t="s">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B132" s="29">
+      <c r="B85" s="25">
         <v>190</v>
       </c>
-      <c r="C132" s="18">
+      <c r="C85" s="16">
         <v>12319</v>
       </c>
-      <c r="D132" s="11">
+      <c r="D85" s="9">
         <v>777.0462</v>
       </c>
-      <c r="E132" s="18">
+      <c r="E85" s="16">
         <v>12319</v>
       </c>
-      <c r="F132" s="11">
+      <c r="F85" s="9">
         <v>1896.1239</v>
       </c>
-      <c r="G132" s="18">
+      <c r="G85" s="16">
         <v>12319</v>
       </c>
-      <c r="H132" s="11">
+      <c r="H85" s="9">
         <v>272.74900000000002</v>
       </c>
-      <c r="I132" s="18">
+      <c r="I85" s="16">
         <v>12319</v>
       </c>
-      <c r="J132" s="11">
+      <c r="J85" s="9">
         <v>3.4066000000000001</v>
       </c>
-      <c r="K132" s="18">
+      <c r="K85" s="16">
         <v>12319</v>
       </c>
-      <c r="L132" s="11">
+      <c r="L85" s="9">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="M132" s="18">
+      <c r="M85" s="16">
         <v>12319</v>
       </c>
-      <c r="N132" s="11">
+      <c r="N85" s="9">
         <v>3.8066</v>
       </c>
-      <c r="O132" s="18">
+      <c r="O85" s="16">
         <v>12319</v>
       </c>
-      <c r="P132" s="11">
+      <c r="P85" s="9">
         <v>3.8418000000000001</v>
       </c>
-      <c r="Q132" s="35">
+      <c r="Q85" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R132" s="35">
+      <c r="R85" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S132" s="3">
+      <c r="S85" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="16" t="s">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B133" s="29">
+      <c r="B86" s="25">
         <v>200</v>
       </c>
-      <c r="C133" s="18">
+      <c r="C86" s="16">
         <v>12711</v>
       </c>
-      <c r="D133" s="11">
+      <c r="D86" s="9">
         <v>950.0403</v>
       </c>
-      <c r="E133" s="18">
+      <c r="E86" s="16">
         <v>12711</v>
       </c>
-      <c r="F133" s="11">
+      <c r="F86" s="9">
         <v>2289.1008999999999</v>
       </c>
-      <c r="G133" s="18">
+      <c r="G86" s="16">
         <v>12711</v>
       </c>
-      <c r="H133" s="11">
+      <c r="H86" s="9">
         <v>327.50670000000002</v>
       </c>
-      <c r="I133" s="18">
+      <c r="I86" s="16">
         <v>12711</v>
       </c>
-      <c r="J133" s="11">
+      <c r="J86" s="9">
         <v>8.5946999999999996</v>
       </c>
-      <c r="K133" s="18">
+      <c r="K86" s="16">
         <v>12711</v>
       </c>
-      <c r="L133" s="11">
+      <c r="L86" s="9">
         <v>0.38179999999999997</v>
       </c>
-      <c r="M133" s="18">
+      <c r="M86" s="16">
         <v>12711</v>
       </c>
-      <c r="N133" s="11">
+      <c r="N86" s="9">
         <v>5.4374000000000002</v>
       </c>
-      <c r="O133" s="18">
+      <c r="O86" s="16">
         <v>12711</v>
       </c>
-      <c r="P133" s="11">
+      <c r="P86" s="9">
         <v>23.3231</v>
       </c>
-      <c r="Q133" s="35">
+      <c r="Q86" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R133" s="35">
+      <c r="R86" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S133" s="3">
+      <c r="S86" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="16" t="s">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B134" s="29">
+      <c r="B87" s="25">
         <v>210</v>
       </c>
-      <c r="C134" s="18">
+      <c r="C87" s="16">
         <v>11732</v>
       </c>
-      <c r="D134" s="11">
+      <c r="D87" s="9">
         <v>806.62789999999995</v>
       </c>
-      <c r="E134" s="18">
+      <c r="E87" s="16">
         <v>11732</v>
       </c>
-      <c r="F134" s="11">
+      <c r="F87" s="9">
         <v>1970.1546000000001</v>
       </c>
-      <c r="G134" s="18">
+      <c r="G87" s="16">
         <v>11732</v>
       </c>
-      <c r="H134" s="11">
+      <c r="H87" s="9">
         <v>288.66840000000002</v>
       </c>
-      <c r="I134" s="18">
+      <c r="I87" s="16">
         <v>11732</v>
       </c>
-      <c r="J134" s="11">
+      <c r="J87" s="9">
         <v>12.557600000000001</v>
       </c>
-      <c r="K134" s="18">
+      <c r="K87" s="16">
         <v>11732</v>
       </c>
-      <c r="L134" s="11">
+      <c r="L87" s="9">
         <v>0.2266</v>
       </c>
-      <c r="M134" s="18">
+      <c r="M87" s="16">
         <v>11732</v>
       </c>
-      <c r="N134" s="11">
+      <c r="N87" s="9">
         <v>3.7040999999999999</v>
       </c>
-      <c r="O134" s="18">
+      <c r="O87" s="16">
         <v>11732</v>
       </c>
-      <c r="P134" s="11">
+      <c r="P87" s="9">
         <v>3.7023999999999999</v>
       </c>
-      <c r="Q134" s="35">
+      <c r="Q87" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R134" s="35">
+      <c r="R87" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S134" s="3">
+      <c r="S87" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="16" t="s">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B135" s="29">
+      <c r="B88" s="25">
         <v>220</v>
       </c>
-      <c r="C135" s="18">
+      <c r="C88" s="16">
         <v>12056</v>
       </c>
-      <c r="D135" s="11">
+      <c r="D88" s="9">
         <v>811.28380000000004</v>
       </c>
-      <c r="E135" s="18">
+      <c r="E88" s="16">
         <v>12056</v>
       </c>
-      <c r="F135" s="11">
+      <c r="F88" s="9">
         <v>2080.9762000000001</v>
       </c>
-      <c r="G135" s="18">
+      <c r="G88" s="16">
         <v>12056</v>
       </c>
-      <c r="H135" s="11">
+      <c r="H88" s="9">
         <v>283.0761</v>
       </c>
-      <c r="I135" s="18">
+      <c r="I88" s="16">
         <v>12056</v>
       </c>
-      <c r="J135" s="11">
+      <c r="J88" s="9">
         <v>12.8978</v>
       </c>
-      <c r="K135" s="18">
+      <c r="K88" s="16">
         <v>12056</v>
       </c>
-      <c r="L135" s="11">
+      <c r="L88" s="9">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="M135" s="18">
+      <c r="M88" s="16">
         <v>12056</v>
       </c>
-      <c r="N135" s="11">
+      <c r="N88" s="9">
         <v>4.2034000000000002</v>
       </c>
-      <c r="O135" s="18">
+      <c r="O88" s="16">
         <v>12056</v>
       </c>
-      <c r="P135" s="11">
+      <c r="P88" s="9">
         <v>4.234</v>
       </c>
-      <c r="Q135" s="35">
+      <c r="Q88" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R135" s="35">
+      <c r="R88" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S135" s="3">
+      <c r="S88" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="16" t="s">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B136" s="29">
+      <c r="B89" s="25">
         <v>230</v>
       </c>
-      <c r="C136" s="18">
+      <c r="C89" s="16">
         <v>13684</v>
       </c>
-      <c r="D136" s="11">
+      <c r="D89" s="9">
         <v>806.20989999999995</v>
       </c>
-      <c r="E136" s="18">
+      <c r="E89" s="16">
         <v>13684</v>
       </c>
-      <c r="F136" s="11">
+      <c r="F89" s="9">
         <v>1946.2180000000001</v>
       </c>
-      <c r="G136" s="18">
+      <c r="G89" s="16">
         <v>13684</v>
       </c>
-      <c r="H136" s="11">
+      <c r="H89" s="9">
         <v>269.089</v>
       </c>
-      <c r="I136" s="18">
+      <c r="I89" s="16">
         <v>13684</v>
       </c>
-      <c r="J136" s="11">
+      <c r="J89" s="9">
         <v>3.7393000000000001</v>
       </c>
-      <c r="K136" s="18">
+      <c r="K89" s="16">
         <v>13684</v>
       </c>
-      <c r="L136" s="11">
+      <c r="L89" s="9">
         <v>0.10929999999999999</v>
       </c>
-      <c r="M136" s="18">
+      <c r="M89" s="16">
         <v>13684</v>
       </c>
-      <c r="N136" s="11">
+      <c r="N89" s="9">
         <v>8.8101000000000003</v>
       </c>
-      <c r="O136" s="18">
+      <c r="O89" s="16">
         <v>13684</v>
       </c>
-      <c r="P136" s="11">
+      <c r="P89" s="9">
         <v>4.2582000000000004</v>
       </c>
-      <c r="Q136" s="35">
+      <c r="Q89" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R136" s="35">
+      <c r="R89" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S136" s="3">
+      <c r="S89" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="16" t="s">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B137" s="29">
+      <c r="B90" s="25">
         <v>240</v>
       </c>
-      <c r="C137" s="18">
+      <c r="C90" s="16">
         <v>14976</v>
       </c>
-      <c r="D137" s="11">
+      <c r="D90" s="9">
         <v>730.70740000000001</v>
       </c>
-      <c r="E137" s="18">
+      <c r="E90" s="16">
         <v>14976</v>
       </c>
-      <c r="F137" s="11">
+      <c r="F90" s="9">
         <v>1951.8453</v>
       </c>
-      <c r="G137" s="18">
+      <c r="G90" s="16">
         <v>14976</v>
       </c>
-      <c r="H137" s="11">
+      <c r="H90" s="9">
         <v>230.58359999999999</v>
       </c>
-      <c r="I137" s="18">
+      <c r="I90" s="16">
         <v>14976</v>
       </c>
-      <c r="J137" s="11">
+      <c r="J90" s="9">
         <v>14.412699999999999</v>
       </c>
-      <c r="K137" s="18">
+      <c r="K90" s="16">
         <v>14976</v>
       </c>
-      <c r="L137" s="11">
+      <c r="L90" s="9">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="M137" s="18">
+      <c r="M90" s="16">
         <v>14976</v>
       </c>
-      <c r="N137" s="11">
+      <c r="N90" s="9">
         <v>7.1542000000000003</v>
       </c>
-      <c r="O137" s="18">
+      <c r="O90" s="16">
         <v>14976</v>
       </c>
-      <c r="P137" s="11">
+      <c r="P90" s="9">
         <v>6.4253999999999998</v>
       </c>
-      <c r="Q137" s="35">
+      <c r="Q90" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R137" s="35">
+      <c r="R90" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S137" s="3">
+      <c r="S90" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="16" t="s">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B138" s="29">
+      <c r="B91" s="25">
         <v>250</v>
       </c>
-      <c r="C138" s="18">
+      <c r="C91" s="16">
         <v>15527</v>
       </c>
-      <c r="D138" s="11">
+      <c r="D91" s="9">
         <v>855.02670000000001</v>
       </c>
-      <c r="E138" s="18">
+      <c r="E91" s="16">
         <v>15527</v>
       </c>
-      <c r="F138" s="11">
+      <c r="F91" s="9">
         <v>2105.8197</v>
       </c>
-      <c r="G138" s="18">
+      <c r="G91" s="16">
         <v>15527</v>
       </c>
-      <c r="H138" s="11">
+      <c r="H91" s="9">
         <v>321.01089999999999</v>
       </c>
-      <c r="I138" s="18">
+      <c r="I91" s="16">
         <v>15527</v>
       </c>
-      <c r="J138" s="11">
+      <c r="J91" s="9">
         <v>14.7432</v>
       </c>
-      <c r="K138" s="18">
+      <c r="K91" s="16">
         <v>15527</v>
       </c>
-      <c r="L138" s="11">
+      <c r="L91" s="9">
         <v>0.1111</v>
       </c>
-      <c r="M138" s="18">
+      <c r="M91" s="16">
         <v>15527</v>
       </c>
-      <c r="N138" s="11">
+      <c r="N91" s="9">
         <v>8.8825000000000003</v>
       </c>
-      <c r="O138" s="18">
+      <c r="O91" s="16">
         <v>15527</v>
       </c>
-      <c r="P138" s="11">
+      <c r="P91" s="9">
         <v>4.5603999999999996</v>
       </c>
-      <c r="Q138" s="35">
+      <c r="Q91" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R138" s="35">
+      <c r="R91" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S138" s="3">
+      <c r="S91" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="16" t="s">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B139" s="29">
+      <c r="B92" s="25">
         <v>260</v>
       </c>
-      <c r="C139" s="18">
+      <c r="C92" s="16">
         <v>15740</v>
       </c>
-      <c r="D139" s="11">
+      <c r="D92" s="9">
         <v>954.48919999999998</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E92" s="16">
         <v>15740</v>
       </c>
-      <c r="F139" s="11">
+      <c r="F92" s="9">
         <v>2306.2121999999999</v>
       </c>
-      <c r="G139" s="18">
+      <c r="G92" s="16">
         <v>15740</v>
       </c>
-      <c r="H139" s="11">
+      <c r="H92" s="9">
         <v>340.40940000000001</v>
       </c>
-      <c r="I139" s="18">
+      <c r="I92" s="16">
         <v>15740</v>
       </c>
-      <c r="J139" s="11">
+      <c r="J92" s="9">
         <v>7.0293999999999999</v>
       </c>
-      <c r="K139" s="18">
+      <c r="K92" s="16">
         <v>15740</v>
       </c>
-      <c r="L139" s="11">
+      <c r="L92" s="9">
         <v>0.11269999999999999</v>
       </c>
-      <c r="M139" s="18">
+      <c r="M92" s="16">
         <v>15740</v>
       </c>
-      <c r="N139" s="11">
+      <c r="N92" s="9">
         <v>7.0777000000000001</v>
       </c>
-      <c r="O139" s="18">
+      <c r="O92" s="16">
         <v>15740</v>
       </c>
-      <c r="P139" s="11">
+      <c r="P92" s="9">
         <v>6.4367999999999999</v>
       </c>
-      <c r="Q139" s="35">
+      <c r="Q92" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R139" s="35">
+      <c r="R92" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S139" s="3">
+      <c r="S92" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="16" t="s">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B140" s="29">
+      <c r="B93" s="25">
         <v>270</v>
       </c>
-      <c r="C140" s="18">
+      <c r="C93" s="16">
         <v>16519</v>
       </c>
-      <c r="D140" s="11">
+      <c r="D93" s="9">
         <v>976.99480000000005</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E93" s="16">
         <v>16519</v>
       </c>
-      <c r="F140" s="11">
+      <c r="F93" s="9">
         <v>2298.2042999999999</v>
       </c>
-      <c r="G140" s="18">
+      <c r="G93" s="16">
         <v>16519</v>
       </c>
-      <c r="H140" s="11">
+      <c r="H93" s="9">
         <v>346.83510000000001</v>
       </c>
-      <c r="I140" s="18">
+      <c r="I93" s="16">
         <v>16519</v>
       </c>
-      <c r="J140" s="11">
+      <c r="J93" s="9">
         <v>10.7479</v>
       </c>
-      <c r="K140" s="18">
+      <c r="K93" s="16">
         <v>16519</v>
       </c>
-      <c r="L140" s="11">
+      <c r="L93" s="9">
         <v>1.2303999999999999</v>
       </c>
-      <c r="M140" s="18">
+      <c r="M93" s="16">
         <v>16519</v>
       </c>
-      <c r="N140" s="11">
+      <c r="N93" s="9">
         <v>11.7865</v>
       </c>
-      <c r="O140" s="18">
+      <c r="O93" s="16">
         <v>16519</v>
       </c>
-      <c r="P140" s="11">
+      <c r="P93" s="9">
         <v>8.2073999999999998</v>
       </c>
-      <c r="Q140" s="35">
+      <c r="Q93" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R140" s="35">
+      <c r="R93" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S140" s="3">
+      <c r="S93" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="16" t="s">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B141" s="29">
+      <c r="B94" s="25">
         <v>280</v>
       </c>
-      <c r="C141" s="18">
+      <c r="C94" s="16">
         <v>16720</v>
       </c>
-      <c r="D141" s="11">
+      <c r="D94" s="9">
         <v>1008.5399</v>
       </c>
-      <c r="E141" s="18">
+      <c r="E94" s="16">
         <v>16720</v>
       </c>
-      <c r="F141" s="11">
+      <c r="F94" s="9">
         <v>2316.2802000000001</v>
       </c>
-      <c r="G141" s="18">
+      <c r="G94" s="16">
         <v>16720</v>
       </c>
-      <c r="H141" s="11">
+      <c r="H94" s="9">
         <v>400.71409999999997</v>
       </c>
-      <c r="I141" s="18">
+      <c r="I94" s="16">
         <v>16720</v>
       </c>
-      <c r="J141" s="11">
+      <c r="J94" s="9">
         <v>10.4414</v>
       </c>
-      <c r="K141" s="18">
+      <c r="K94" s="16">
         <v>16720</v>
       </c>
-      <c r="L141" s="11">
+      <c r="L94" s="9">
         <v>0.14499999999999999</v>
       </c>
-      <c r="M141" s="18">
+      <c r="M94" s="16">
         <v>16720</v>
       </c>
-      <c r="N141" s="11">
+      <c r="N94" s="9">
         <v>7.3368000000000002</v>
       </c>
-      <c r="O141" s="18">
+      <c r="O94" s="16">
         <v>16720</v>
       </c>
-      <c r="P141" s="11">
+      <c r="P94" s="9">
         <v>10.1563</v>
       </c>
-      <c r="Q141" s="35">
+      <c r="Q94" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R141" s="35">
+      <c r="R94" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S141" s="3">
+      <c r="S94" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="16" t="s">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B142" s="29">
+      <c r="B95" s="25">
         <v>290</v>
       </c>
-      <c r="C142" s="18">
+      <c r="C95" s="16">
         <v>17326</v>
       </c>
-      <c r="D142" s="11">
+      <c r="D95" s="9">
         <v>925.76599999999996</v>
       </c>
-      <c r="E142" s="18">
+      <c r="E95" s="16">
         <v>17326</v>
       </c>
-      <c r="F142" s="11">
+      <c r="F95" s="9">
         <v>2309.4063999999998</v>
       </c>
-      <c r="G142" s="18">
+      <c r="G95" s="16">
         <v>17326</v>
       </c>
-      <c r="H142" s="11">
+      <c r="H95" s="9">
         <v>356.17849999999999</v>
       </c>
-      <c r="I142" s="18">
+      <c r="I95" s="16">
         <v>17326</v>
       </c>
-      <c r="J142" s="11">
+      <c r="J95" s="9">
         <v>18.0031</v>
       </c>
-      <c r="K142" s="18">
+      <c r="K95" s="16">
         <v>17326</v>
       </c>
-      <c r="L142" s="11">
+      <c r="L95" s="9">
         <v>0.12790000000000001</v>
       </c>
-      <c r="M142" s="18">
+      <c r="M95" s="16">
         <v>17326</v>
       </c>
-      <c r="N142" s="11">
+      <c r="N95" s="9">
         <v>10.0038</v>
       </c>
-      <c r="O142" s="18">
+      <c r="O95" s="16">
         <v>17326</v>
       </c>
-      <c r="P142" s="11">
+      <c r="P95" s="9">
         <v>10.314</v>
       </c>
-      <c r="Q142" s="35">
+      <c r="Q95" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R142" s="35">
+      <c r="R95" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S142" s="3">
+      <c r="S95" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="16" t="s">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B143" s="29">
+      <c r="B96" s="25">
         <v>300</v>
       </c>
-      <c r="C143" s="18">
+      <c r="C96" s="16">
         <v>18144</v>
       </c>
-      <c r="D143" s="11">
+      <c r="D96" s="9">
         <v>1021.8808</v>
       </c>
-      <c r="E143" s="18">
+      <c r="E96" s="16">
         <v>18144</v>
       </c>
-      <c r="F143" s="11">
+      <c r="F96" s="9">
         <v>2329.3582000000001</v>
       </c>
-      <c r="G143" s="18">
+      <c r="G96" s="16">
         <v>18144</v>
       </c>
-      <c r="H143" s="11">
+      <c r="H96" s="9">
         <v>365.21289999999999</v>
       </c>
-      <c r="I143" s="18">
+      <c r="I96" s="16">
         <v>18144</v>
       </c>
-      <c r="J143" s="11">
+      <c r="J96" s="9">
         <v>11.073399999999999</v>
       </c>
-      <c r="K143" s="18">
+      <c r="K96" s="16">
         <v>18144</v>
       </c>
-      <c r="L143" s="11">
+      <c r="L96" s="9">
         <v>0.98140000000000005</v>
       </c>
-      <c r="M143" s="18">
+      <c r="M96" s="16">
         <v>18144</v>
       </c>
-      <c r="N143" s="11">
+      <c r="N96" s="9">
         <v>11.093400000000001</v>
       </c>
-      <c r="O143" s="18">
+      <c r="O96" s="16">
         <v>18144</v>
       </c>
-      <c r="P143" s="11">
+      <c r="P96" s="9">
         <v>8.6319999999999997</v>
       </c>
-      <c r="Q143" s="35">
+      <c r="Q96" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R143" s="35">
+      <c r="R96" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S143" s="3">
+      <c r="S96" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="16" t="s">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B144" s="29">
+      <c r="B97" s="25">
         <v>350</v>
       </c>
-      <c r="C144" s="18">
+      <c r="C97" s="16">
         <v>20076</v>
       </c>
-      <c r="D144" s="11">
+      <c r="D97" s="9">
         <v>1316.1679999999999</v>
       </c>
-      <c r="E144" s="18">
+      <c r="E97" s="16">
         <v>20076</v>
       </c>
-      <c r="F144" s="11">
+      <c r="F97" s="9">
         <v>2693.5364</v>
       </c>
-      <c r="G144" s="18">
+      <c r="G97" s="16">
         <v>20076</v>
       </c>
-      <c r="H144" s="11">
+      <c r="H97" s="9">
         <v>492.15269999999998</v>
       </c>
-      <c r="I144" s="18">
+      <c r="I97" s="16">
         <v>20076</v>
       </c>
-      <c r="J144" s="11">
+      <c r="J97" s="9">
         <v>60.985700000000001</v>
       </c>
-      <c r="K144" s="18">
+      <c r="K97" s="16">
         <v>20076</v>
       </c>
-      <c r="L144" s="11">
+      <c r="L97" s="9">
         <v>0.90620000000000001</v>
       </c>
-      <c r="M144" s="18">
+      <c r="M97" s="16">
         <v>20076</v>
       </c>
-      <c r="N144" s="11">
+      <c r="N97" s="9">
         <v>63.726700000000001</v>
       </c>
-      <c r="O144" s="18">
+      <c r="O97" s="16">
         <v>20076</v>
       </c>
-      <c r="P144" s="11">
+      <c r="P97" s="9">
         <v>62.654600000000002</v>
       </c>
-      <c r="Q144" s="35">
+      <c r="Q97" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R144" s="35">
+      <c r="R97" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S144" s="3">
+      <c r="S97" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="16" t="s">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B145" s="29">
+      <c r="B98" s="25">
         <v>400</v>
       </c>
-      <c r="C145" s="18">
+      <c r="C98" s="16">
         <v>22400</v>
       </c>
-      <c r="D145" s="11">
+      <c r="D98" s="9">
         <v>1030.2534000000001</v>
       </c>
-      <c r="E145" s="18">
+      <c r="E98" s="16">
         <v>22400</v>
       </c>
-      <c r="F145" s="11">
+      <c r="F98" s="9">
         <v>2396.8528999999999</v>
       </c>
-      <c r="G145" s="18">
+      <c r="G98" s="16">
         <v>22400</v>
       </c>
-      <c r="H145" s="11">
+      <c r="H98" s="9">
         <v>417.65370000000001</v>
       </c>
-      <c r="I145" s="18">
+      <c r="I98" s="16">
         <v>22400</v>
       </c>
-      <c r="J145" s="11">
+      <c r="J98" s="9">
         <v>7.3967000000000001</v>
       </c>
-      <c r="K145" s="18">
+      <c r="K98" s="16">
         <v>22400</v>
       </c>
-      <c r="L145" s="11">
+      <c r="L98" s="9">
         <v>0.21299999999999999</v>
       </c>
-      <c r="M145" s="18">
+      <c r="M98" s="16">
         <v>22400</v>
       </c>
-      <c r="N145" s="11">
+      <c r="N98" s="9">
         <v>8.9093999999999998</v>
       </c>
-      <c r="O145" s="18">
+      <c r="O98" s="16">
         <v>22400</v>
       </c>
-      <c r="P145" s="11">
+      <c r="P98" s="9">
         <v>8.7767999999999997</v>
       </c>
-      <c r="Q145" s="35">
+      <c r="Q98" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R145" s="35">
+      <c r="R98" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S145" s="3">
+      <c r="S98" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="16" t="s">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B146" s="29">
+      <c r="B99" s="25">
         <v>450</v>
       </c>
-      <c r="C146" s="18">
+      <c r="C99" s="16">
         <v>26165</v>
       </c>
-      <c r="D146" s="11">
+      <c r="D99" s="9">
         <v>1222.0059000000001</v>
       </c>
-      <c r="E146" s="18">
+      <c r="E99" s="16">
         <v>26165</v>
       </c>
-      <c r="F146" s="11">
+      <c r="F99" s="9">
         <v>2510.8732</v>
       </c>
-      <c r="G146" s="18">
+      <c r="G99" s="16">
         <v>26165</v>
       </c>
-      <c r="H146" s="11">
+      <c r="H99" s="9">
         <v>363.47859999999997</v>
       </c>
-      <c r="I146" s="18">
+      <c r="I99" s="16">
         <v>26165</v>
       </c>
-      <c r="J146" s="11">
+      <c r="J99" s="9">
         <v>27.211300000000001</v>
       </c>
-      <c r="K146" s="18">
+      <c r="K99" s="16">
         <v>26165</v>
       </c>
-      <c r="L146" s="11">
+      <c r="L99" s="9">
         <v>0.95089999999999997</v>
       </c>
-      <c r="M146" s="18">
+      <c r="M99" s="16">
         <v>26165</v>
       </c>
-      <c r="N146" s="11">
+      <c r="N99" s="9">
         <v>26.2456</v>
       </c>
-      <c r="O146" s="18">
+      <c r="O99" s="16">
         <v>26165</v>
       </c>
-      <c r="P146" s="11">
+      <c r="P99" s="9">
         <v>6.7534000000000001</v>
       </c>
-      <c r="Q146" s="35">
+      <c r="Q99" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R146" s="35">
+      <c r="R99" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S146" s="3">
+      <c r="S99" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="16" t="s">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B147" s="29">
+      <c r="B100" s="25">
         <v>500</v>
       </c>
-      <c r="C147" s="18">
+      <c r="C100" s="16">
         <v>30743</v>
       </c>
-      <c r="D147" s="11">
+      <c r="D100" s="9">
         <v>1152.5709999999999</v>
       </c>
-      <c r="E147" s="18">
+      <c r="E100" s="16">
         <v>30743</v>
       </c>
-      <c r="F147" s="11">
+      <c r="F100" s="9">
         <v>2584.2608</v>
       </c>
-      <c r="G147" s="18">
+      <c r="G100" s="16">
         <v>30743</v>
       </c>
-      <c r="H147" s="11">
+      <c r="H100" s="9">
         <v>419.2758</v>
       </c>
-      <c r="I147" s="18">
+      <c r="I100" s="16">
         <v>30743</v>
       </c>
-      <c r="J147" s="11">
+      <c r="J100" s="9">
         <v>12.72</v>
       </c>
-      <c r="K147" s="18">
+      <c r="K100" s="16">
         <v>30743</v>
       </c>
-      <c r="L147" s="11">
+      <c r="L100" s="9">
         <v>0.23599999999999999</v>
       </c>
-      <c r="M147" s="18">
+      <c r="M100" s="16">
         <v>30743</v>
       </c>
-      <c r="N147" s="11">
+      <c r="N100" s="9">
         <v>12.775399999999999</v>
       </c>
-      <c r="O147" s="18">
+      <c r="O100" s="16">
         <v>30743</v>
       </c>
-      <c r="P147" s="11">
+      <c r="P100" s="9">
         <v>12.8187</v>
       </c>
-      <c r="Q147" s="35">
+      <c r="Q100" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R147" s="35">
+      <c r="R100" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S147" s="3">
+      <c r="S100" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="16" t="s">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B148" s="29">
+      <c r="B101" s="25">
         <v>550</v>
       </c>
-      <c r="C148" s="18">
+      <c r="C101" s="16">
         <v>33563</v>
       </c>
-      <c r="D148" s="11">
+      <c r="D101" s="9">
         <v>1465.9259</v>
       </c>
-      <c r="E148" s="18">
+      <c r="E101" s="16">
         <v>33563</v>
       </c>
-      <c r="F148" s="11">
+      <c r="F101" s="9">
         <v>3004.5569999999998</v>
       </c>
-      <c r="G148" s="18">
+      <c r="G101" s="16">
         <v>33563</v>
       </c>
-      <c r="H148" s="11">
+      <c r="H101" s="9">
         <v>611.34249999999997</v>
       </c>
-      <c r="I148" s="18">
+      <c r="I101" s="16">
         <v>33563</v>
       </c>
-      <c r="J148" s="11">
+      <c r="J101" s="9">
         <v>12.341200000000001</v>
       </c>
-      <c r="K148" s="18">
+      <c r="K101" s="16">
         <v>33563</v>
       </c>
-      <c r="L148" s="11">
+      <c r="L101" s="9">
         <v>0.93179999999999996</v>
       </c>
-      <c r="M148" s="18">
+      <c r="M101" s="16">
         <v>33563</v>
       </c>
-      <c r="N148" s="11">
+      <c r="N101" s="9">
         <v>40.962200000000003</v>
       </c>
-      <c r="O148" s="18">
+      <c r="O101" s="16">
         <v>33563</v>
       </c>
-      <c r="P148" s="11">
+      <c r="P101" s="9">
         <v>28.7256</v>
       </c>
-      <c r="Q148" s="35">
+      <c r="Q101" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R148" s="35">
+      <c r="R101" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S148" s="3">
+      <c r="S101" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="16" t="s">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="29">
+      <c r="B102" s="25">
         <v>600</v>
       </c>
-      <c r="C149" s="18">
+      <c r="C102" s="16">
         <v>34135</v>
       </c>
-      <c r="D149" s="11">
+      <c r="D102" s="9">
         <v>1512.9251999999999</v>
       </c>
-      <c r="E149" s="18">
+      <c r="E102" s="16">
         <v>34135</v>
       </c>
-      <c r="F149" s="11">
+      <c r="F102" s="9">
         <v>3208.0994999999998</v>
       </c>
-      <c r="G149" s="18">
+      <c r="G102" s="16">
         <v>34135</v>
       </c>
-      <c r="H149" s="11">
+      <c r="H102" s="9">
         <v>520.33939999999996</v>
       </c>
-      <c r="I149" s="18">
+      <c r="I102" s="16">
         <v>34135</v>
       </c>
-      <c r="J149" s="11">
+      <c r="J102" s="9">
         <v>35.316699999999997</v>
       </c>
-      <c r="K149" s="18">
+      <c r="K102" s="16">
         <v>34135</v>
       </c>
-      <c r="L149" s="11">
+      <c r="L102" s="9">
         <v>0.83919999999999995</v>
       </c>
-      <c r="M149" s="18">
+      <c r="M102" s="16">
         <v>34135</v>
       </c>
-      <c r="N149" s="11">
+      <c r="N102" s="9">
         <v>11.7927</v>
       </c>
-      <c r="O149" s="18">
+      <c r="O102" s="16">
         <v>34135</v>
       </c>
-      <c r="P149" s="11">
+      <c r="P102" s="9">
         <v>11.3504</v>
       </c>
-      <c r="Q149" s="35">
+      <c r="Q102" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R149" s="35">
+      <c r="R102" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S149" s="3">
+      <c r="S102" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="16" t="s">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B150" s="29">
+      <c r="B103" s="25">
         <v>650</v>
       </c>
-      <c r="C150" s="18">
+      <c r="C103" s="16">
         <v>39775</v>
       </c>
-      <c r="D150" s="11">
+      <c r="D103" s="9">
         <v>1578.6909000000001</v>
       </c>
-      <c r="E150" s="18">
+      <c r="E103" s="16">
         <v>39775</v>
       </c>
-      <c r="F150" s="11">
+      <c r="F103" s="9">
         <v>3110.4643000000001</v>
       </c>
-      <c r="G150" s="18">
+      <c r="G103" s="16">
         <v>39775</v>
       </c>
-      <c r="H150" s="11">
+      <c r="H103" s="9">
         <v>728.07429999999999</v>
       </c>
-      <c r="I150" s="18">
+      <c r="I103" s="16">
         <v>39775</v>
       </c>
-      <c r="J150" s="11">
+      <c r="J103" s="9">
         <v>35.2059</v>
       </c>
-      <c r="K150" s="18">
+      <c r="K103" s="16">
         <v>39775</v>
       </c>
-      <c r="L150" s="11">
+      <c r="L103" s="9">
         <v>0.99219999999999997</v>
       </c>
-      <c r="M150" s="18">
+      <c r="M103" s="16">
         <v>39775</v>
       </c>
-      <c r="N150" s="11">
+      <c r="N103" s="9">
         <v>16.0488</v>
       </c>
-      <c r="O150" s="18">
+      <c r="O103" s="16">
         <v>39775</v>
       </c>
-      <c r="P150" s="11">
+      <c r="P103" s="9">
         <v>15.919499999999999</v>
       </c>
-      <c r="Q150" s="35">
+      <c r="Q103" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R150" s="35">
+      <c r="R103" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S150" s="3">
+      <c r="S103" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="16" t="s">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B151" s="29">
+      <c r="B104" s="25">
         <v>700</v>
       </c>
-      <c r="C151" s="18">
+      <c r="C104" s="16">
         <v>41866</v>
       </c>
-      <c r="D151" s="11">
+      <c r="D104" s="9">
         <v>1582.6289999999999</v>
       </c>
-      <c r="E151" s="18">
+      <c r="E104" s="16">
         <v>41866</v>
       </c>
-      <c r="F151" s="11">
+      <c r="F104" s="9">
         <v>3066.0162999999998</v>
       </c>
-      <c r="G151" s="18">
+      <c r="G104" s="16">
         <v>41866</v>
       </c>
-      <c r="H151" s="11">
+      <c r="H104" s="9">
         <v>661.34950000000003</v>
       </c>
-      <c r="I151" s="18">
+      <c r="I104" s="16">
         <v>41866</v>
       </c>
-      <c r="J151" s="11">
+      <c r="J104" s="9">
         <v>44.018099999999997</v>
       </c>
-      <c r="K151" s="18">
+      <c r="K104" s="16">
         <v>41866</v>
       </c>
-      <c r="L151" s="11">
+      <c r="L104" s="9">
         <v>1.1053999999999999</v>
       </c>
-      <c r="M151" s="18">
+      <c r="M104" s="16">
         <v>41866</v>
       </c>
-      <c r="N151" s="11">
+      <c r="N104" s="9">
         <v>19.390899999999998</v>
       </c>
-      <c r="O151" s="18">
+      <c r="O104" s="16">
         <v>41866</v>
       </c>
-      <c r="P151" s="11">
+      <c r="P104" s="9">
         <v>24.538499999999999</v>
       </c>
-      <c r="Q151" s="35">
+      <c r="Q104" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R151" s="35">
+      <c r="R104" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S151" s="3">
+      <c r="S104" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="16" t="s">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B152" s="29">
+      <c r="B105" s="25">
         <v>750</v>
       </c>
-      <c r="C152" s="18">
+      <c r="C105" s="16">
         <v>44240</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D105" s="9">
         <v>1665.6666</v>
       </c>
-      <c r="E152" s="18">
+      <c r="E105" s="16">
         <v>44240</v>
       </c>
-      <c r="F152" s="11">
+      <c r="F105" s="9">
         <v>3294.8152</v>
       </c>
-      <c r="G152" s="18">
+      <c r="G105" s="16">
         <v>44240</v>
       </c>
-      <c r="H152" s="11">
+      <c r="H105" s="9">
         <v>638.51649999999995</v>
       </c>
-      <c r="I152" s="18">
+      <c r="I105" s="16">
         <v>44240</v>
       </c>
-      <c r="J152" s="11">
+      <c r="J105" s="9">
         <v>41.193399999999997</v>
       </c>
-      <c r="K152" s="18">
+      <c r="K105" s="16">
         <v>44240</v>
       </c>
-      <c r="L152" s="11">
+      <c r="L105" s="9">
         <v>1.0142</v>
       </c>
-      <c r="M152" s="18">
+      <c r="M105" s="16">
         <v>44240</v>
       </c>
-      <c r="N152" s="11">
+      <c r="N105" s="9">
         <v>48.988100000000003</v>
       </c>
-      <c r="O152" s="18">
+      <c r="O105" s="16">
         <v>44240</v>
       </c>
-      <c r="P152" s="11">
+      <c r="P105" s="9">
         <v>43.733199999999997</v>
       </c>
-      <c r="Q152" s="35">
+      <c r="Q105" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R152" s="35">
+      <c r="R105" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S152" s="3">
+      <c r="S105" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="16" t="s">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B153" s="29">
+      <c r="B106" s="25">
         <v>800</v>
       </c>
-      <c r="C153" s="18">
+      <c r="C106" s="16">
         <v>46776</v>
       </c>
-      <c r="D153" s="11">
+      <c r="D106" s="9">
         <v>1721.3856000000001</v>
       </c>
-      <c r="E153" s="18">
+      <c r="E106" s="16">
         <v>46776</v>
       </c>
-      <c r="F153" s="11">
+      <c r="F106" s="9">
         <v>3312.3935000000001</v>
       </c>
-      <c r="G153" s="18">
+      <c r="G106" s="16">
         <v>46776</v>
       </c>
-      <c r="H153" s="11">
+      <c r="H106" s="9">
         <v>680.12379999999996</v>
       </c>
-      <c r="I153" s="18">
+      <c r="I106" s="16">
         <v>46776</v>
       </c>
-      <c r="J153" s="11">
+      <c r="J106" s="9">
         <v>40.0608</v>
       </c>
-      <c r="K153" s="18">
+      <c r="K106" s="16">
         <v>46776</v>
       </c>
-      <c r="L153" s="11">
+      <c r="L106" s="9">
         <v>1.7549999999999999</v>
       </c>
-      <c r="M153" s="18">
+      <c r="M106" s="16">
         <v>46776</v>
       </c>
-      <c r="N153" s="11">
+      <c r="N106" s="9">
         <v>28.968299999999999</v>
       </c>
-      <c r="O153" s="18">
+      <c r="O106" s="16">
         <v>46776</v>
       </c>
-      <c r="P153" s="11">
+      <c r="P106" s="9">
         <v>46.768900000000002</v>
       </c>
-      <c r="Q153" s="35">
+      <c r="Q106" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R153" s="35">
+      <c r="R106" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S153" s="3">
+      <c r="S106" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="16" t="s">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B154" s="29">
+      <c r="B107" s="25">
         <v>850</v>
       </c>
-      <c r="C154" s="18">
+      <c r="C107" s="16">
         <v>52873</v>
       </c>
-      <c r="D154" s="11">
+      <c r="D107" s="9">
         <v>1639.0830000000001</v>
       </c>
-      <c r="E154" s="18">
+      <c r="E107" s="16">
         <v>52873</v>
       </c>
-      <c r="F154" s="11">
+      <c r="F107" s="9">
         <v>3431.0300999999999</v>
       </c>
-      <c r="G154" s="18">
+      <c r="G107" s="16">
         <v>52873</v>
       </c>
-      <c r="H154" s="11">
+      <c r="H107" s="9">
         <v>835.15430000000003</v>
       </c>
-      <c r="I154" s="18">
+      <c r="I107" s="16">
         <v>52873</v>
       </c>
-      <c r="J154" s="11">
+      <c r="J107" s="9">
         <v>43.395000000000003</v>
       </c>
-      <c r="K154" s="18">
+      <c r="K107" s="16">
         <v>52873</v>
       </c>
-      <c r="L154" s="11">
+      <c r="L107" s="9">
         <v>0.38290000000000002</v>
       </c>
-      <c r="M154" s="18">
+      <c r="M107" s="16">
         <v>52873</v>
       </c>
-      <c r="N154" s="11">
+      <c r="N107" s="9">
         <v>67.596599999999995</v>
       </c>
-      <c r="O154" s="18">
+      <c r="O107" s="16">
         <v>52873</v>
       </c>
-      <c r="P154" s="11">
+      <c r="P107" s="9">
         <v>50.678699999999999</v>
       </c>
-      <c r="Q154" s="35">
+      <c r="Q107" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R154" s="35">
+      <c r="R107" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S154" s="3">
+      <c r="S107" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="16" t="s">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="B155" s="29">
+      <c r="B108" s="25">
         <v>900</v>
       </c>
-      <c r="C155" s="18">
+      <c r="C108" s="16">
         <v>54824</v>
       </c>
-      <c r="D155" s="11">
+      <c r="D108" s="9">
         <v>1722.6084000000001</v>
       </c>
-      <c r="E155" s="18">
+      <c r="E108" s="16">
         <v>54824</v>
       </c>
-      <c r="F155" s="11">
+      <c r="F108" s="9">
         <v>3495.0472</v>
       </c>
-      <c r="G155" s="18">
+      <c r="G108" s="16">
         <v>54824</v>
       </c>
-      <c r="H155" s="11">
+      <c r="H108" s="9">
         <v>781.75760000000002</v>
       </c>
-      <c r="I155" s="18">
+      <c r="I108" s="16">
         <v>54824</v>
       </c>
-      <c r="J155" s="11">
+      <c r="J108" s="9">
         <v>38.7729</v>
       </c>
-      <c r="K155" s="18">
+      <c r="K108" s="16">
         <v>54824</v>
       </c>
-      <c r="L155" s="11">
+      <c r="L108" s="9">
         <v>1.0738000000000001</v>
       </c>
-      <c r="M155" s="18">
+      <c r="M108" s="16">
         <v>54824</v>
       </c>
-      <c r="N155" s="11">
+      <c r="N108" s="9">
         <v>50.461799999999997</v>
       </c>
-      <c r="O155" s="18">
+      <c r="O108" s="16">
         <v>54824</v>
       </c>
-      <c r="P155" s="11">
+      <c r="P108" s="9">
         <v>60.256</v>
       </c>
-      <c r="Q155" s="35">
+      <c r="Q108" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R155" s="35">
+      <c r="R108" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S155" s="3">
+      <c r="S108" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="16" t="s">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B156" s="29">
+      <c r="B109" s="25">
         <v>950</v>
       </c>
-      <c r="C156" s="18">
+      <c r="C109" s="16">
         <v>57077</v>
       </c>
-      <c r="D156" s="11">
+      <c r="D109" s="9">
         <v>1899.4863</v>
       </c>
-      <c r="E156" s="18">
+      <c r="E109" s="16">
         <v>57077</v>
       </c>
-      <c r="F156" s="11">
+      <c r="F109" s="9">
         <v>3750.8872999999999</v>
       </c>
-      <c r="G156" s="18">
+      <c r="G109" s="16">
         <v>57077</v>
       </c>
-      <c r="H156" s="11">
+      <c r="H109" s="9">
         <v>718.53949999999998</v>
       </c>
-      <c r="I156" s="18">
+      <c r="I109" s="16">
         <v>57077</v>
       </c>
-      <c r="J156" s="11">
+      <c r="J109" s="9">
         <v>31.373699999999999</v>
       </c>
-      <c r="K156" s="18">
+      <c r="K109" s="16">
         <v>57077</v>
       </c>
-      <c r="L156" s="11">
+      <c r="L109" s="9">
         <v>1.3196000000000001</v>
       </c>
-      <c r="M156" s="18">
+      <c r="M109" s="16">
         <v>57077</v>
       </c>
-      <c r="N156" s="11">
+      <c r="N109" s="9">
         <v>31.331399999999999</v>
       </c>
-      <c r="O156" s="18">
+      <c r="O109" s="16">
         <v>57077</v>
       </c>
-      <c r="P156" s="11">
+      <c r="P109" s="9">
         <v>78.130200000000002</v>
       </c>
-      <c r="Q156" s="35">
+      <c r="Q109" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R156" s="35">
+      <c r="R109" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S156" s="3">
+      <c r="S109" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="17" t="s">
+    <row r="110" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B157" s="30">
+      <c r="B110" s="26">
         <v>1000</v>
       </c>
-      <c r="C157" s="19">
+      <c r="C110" s="17">
         <v>60380</v>
       </c>
-      <c r="D157" s="13">
+      <c r="D110" s="11">
         <v>1890.9969000000001</v>
       </c>
-      <c r="E157" s="19">
+      <c r="E110" s="17">
         <v>60380</v>
       </c>
-      <c r="F157" s="13">
+      <c r="F110" s="11">
         <v>3760.8139000000001</v>
       </c>
-      <c r="G157" s="19">
+      <c r="G110" s="17">
         <v>60380</v>
       </c>
-      <c r="H157" s="13">
+      <c r="H110" s="11">
         <v>892.9248</v>
       </c>
-      <c r="I157" s="19">
+      <c r="I110" s="17">
         <v>60380</v>
       </c>
-      <c r="J157" s="13">
+      <c r="J110" s="11">
         <v>65.979500000000002</v>
       </c>
-      <c r="K157" s="19">
+      <c r="K110" s="17">
         <v>60380</v>
       </c>
-      <c r="L157" s="13">
+      <c r="L110" s="11">
         <v>13.714399999999999</v>
       </c>
-      <c r="M157" s="19">
+      <c r="M110" s="17">
         <v>60380</v>
       </c>
-      <c r="N157" s="13">
+      <c r="N110" s="11">
         <v>74.964600000000004</v>
       </c>
-      <c r="O157" s="19">
+      <c r="O110" s="17">
         <v>60380</v>
       </c>
-      <c r="P157" s="13">
+      <c r="P110" s="11">
         <v>82.269000000000005</v>
       </c>
-      <c r="Q157" s="36">
+      <c r="Q110" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R157" s="36">
+      <c r="R110" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S157" s="4">
+      <c r="S110" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15162,15 +15161,15 @@
     <sortCondition ref="B3:B60"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="Q112:S112"/>
+    <mergeCell ref="Q65:S65"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="O112:P112"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
